--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail14 Features.xlsx
@@ -5653,7 +5653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,29 +5664,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5707,115 +5705,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5832,72 +5820,66 @@
         <v>3.221849318153041e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4720204309231345</v>
+        <v>1.014577376667381e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.430304441368433</v>
+        <v>3.873955635981604e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.014577376667381e-06</v>
+        <v>-0.01501079502928713</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.873955635981604e-06</v>
+        <v>0.1662422874355995</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01501079502928713</v>
+        <v>0.0278218482345206</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1662422874355995</v>
+        <v>1.575747261000787</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0278218482345206</v>
+        <v>1.222571588052699</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.582746293144256</v>
+        <v>26.06649300562845</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.222571588052699</v>
+        <v>3.789976398782988e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>26.06649300562845</v>
+        <v>231854194.144388</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.789976398782988e-14</v>
+        <v>4.589246110251885e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>231854194.144388</v>
+        <v>2037.353635117906</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.589246110251885e-07</v>
+        <v>3.76170433875732e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2037.353635117906</v>
+        <v>6.228920342616642</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.76170433875732e-05</v>
+        <v>1.615283829561307</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.228920342616642</v>
+        <v>0.001459520542704052</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.615283829561307</v>
+        <v>6.574653805048947</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001459520542704052</v>
+        <v>0.9416285345015464</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.574653805048947</v>
+        <v>0.9397780025486048</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9416285345015464</v>
+        <v>15</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9397780025486048</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.830634615039181</v>
       </c>
     </row>
@@ -5912,72 +5894,66 @@
         <v>3.179013455386058e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4570735343921989</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.454879387442223</v>
+        <v>3.871079480145065e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>-0.003539727864316165</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.871079480145065e-06</v>
+        <v>0.143565133358544</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.003539727864316165</v>
+        <v>0.02060140085306488</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.143565133358544</v>
+        <v>1.570231003521678</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02060140085306488</v>
+        <v>1.223687720475093</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.576970525158146</v>
+        <v>25.90476163327137</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.223687720475093</v>
+        <v>3.837448098043795e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>25.90476163327137</v>
+        <v>229003085.9940496</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.837448098043795e-14</v>
+        <v>4.646358197513029e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>229003085.9940496</v>
+        <v>2012.450395386943</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.646358197513029e-07</v>
+        <v>3.158720467856361e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2012.450395386943</v>
+        <v>6.945340882723424</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.158720467856361e-05</v>
+        <v>1.523019528399437</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.945340882723424</v>
+        <v>0.001523695997636169</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.523019528399437</v>
+        <v>6.910776422672168</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.001523695997636169</v>
+        <v>0.9395705404598905</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.910776422672168</v>
+        <v>1.011143820082456</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9395705404598905</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.011143820082456</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>5.36172442066014</v>
       </c>
     </row>
@@ -5992,72 +5968,66 @@
         <v>3.181459075730042e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4556830577687312</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.458758583181814</v>
+        <v>3.871348137413725e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.004594775963223005</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.871348137413725e-06</v>
+        <v>0.1276860767271618</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.004594775963223005</v>
+        <v>0.01631204965605495</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1276860767271618</v>
+        <v>1.571421101221921</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01631204965605495</v>
+        <v>1.231811754165912</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.578340467407451</v>
+        <v>25.54686654496448</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.231811754165912</v>
+        <v>3.945721578350685e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>25.54686654496448</v>
+        <v>222715188.8136584</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.945721578350685e-14</v>
+        <v>4.777569131436065e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>222715188.8136584</v>
+        <v>1957.159000394318</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.777569131436065e-07</v>
+        <v>2.611965541285512e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1957.159000394318</v>
+        <v>9.175624735915861</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.611965541285512e-05</v>
+        <v>1.305907805792615</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.175624735915861</v>
+        <v>0.002199068360856777</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.305907805792615</v>
+        <v>7.327780868729847</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002199068360856777</v>
+        <v>0.9415913715817344</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.327780868729847</v>
+        <v>0.9344648277095464</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9415913715817344</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9344648277095464</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>6.664599423334798</v>
       </c>
     </row>
@@ -6072,72 +6042,66 @@
         <v>3.202973560586626e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4427673128344164</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.489801083882485</v>
+        <v>3.873753846351111e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.01013029574644384</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.873753846351111e-06</v>
+        <v>0.1158370494525635</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01013029574644384</v>
+        <v>0.01351172084254947</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1158370494525635</v>
+        <v>1.57044623903249</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01351172084254947</v>
+        <v>1.223522529495256</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.576177448952331</v>
+        <v>26.0536233344333</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.223522529495256</v>
+        <v>3.793721582038871e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>26.0536233344333</v>
+        <v>231625375.8232629</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.793721582038871e-14</v>
+        <v>4.593757090273585e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>231625375.8232629</v>
+        <v>2035.343568564263</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.593757090273585e-07</v>
+        <v>2.838910667120735e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2035.343568564263</v>
+        <v>9.138862931186855</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.838910667120735e-05</v>
+        <v>1.243656194207994</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.138862931186855</v>
+        <v>0.002371024567251081</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.243656194207994</v>
+        <v>7.229785020200294</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002371024567251081</v>
+        <v>0.9443819824059952</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.229785020200294</v>
+        <v>0.9494316314936712</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9443819824059952</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9494316314936712</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.757890108373596</v>
       </c>
     </row>
@@ -6152,72 +6116,66 @@
         <v>3.229607179529722e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4135248528135803</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.540382884737844</v>
+        <v>3.8777427142218e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.01444355151435948</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.8777427142218e-06</v>
+        <v>0.1060661854775716</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01444355151435948</v>
+        <v>0.0114517865632993</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1060661854775716</v>
+        <v>1.575792744845867</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0114517865632993</v>
+        <v>1.220264907393612</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.583809300555871</v>
+        <v>26.07242709108416</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.220264907393612</v>
+        <v>3.788251397548579e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>26.07242709108416</v>
+        <v>231959455.8706834</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.788251397548579e-14</v>
+        <v>4.587159306463025e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>231959455.8706834</v>
+        <v>2038.275830603731</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.587159306463025e-07</v>
+        <v>3.537728473608864e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2038.275830603731</v>
+        <v>7.647191062117225</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.537728473608864e-05</v>
+        <v>1.292226222391372</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.647191062117225</v>
+        <v>0.002068847024391336</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.292226222391372</v>
+        <v>6.79685604725015</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.002068847024391336</v>
+        <v>0.9443373422172423</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.79685604725015</v>
+        <v>0.9882121375905574</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9443373422172423</v>
+        <v>16</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9882121375905574</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>5.724162699927673</v>
       </c>
     </row>
@@ -6232,72 +6190,66 @@
         <v>3.253534292291187e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.370369860330987</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.594747163252155</v>
+        <v>3.882998300234143e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.01777278627446569</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.882998300234143e-06</v>
+        <v>0.09855033218263383</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01777278627446569</v>
+        <v>0.01002340378831638</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09855033218263383</v>
+        <v>1.587597437471269</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01002340378831638</v>
+        <v>1.228245975500331</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.597796332509201</v>
+        <v>26.5932154095028</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.228245975500331</v>
+        <v>3.641329776920035e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>26.5932154095028</v>
+        <v>241306373.2781559</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.641329776920035e-14</v>
+        <v>4.409589646284794e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>241306373.2781559</v>
+        <v>2120.30138724973</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.409589646284794e-07</v>
+        <v>4.447456481135116e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2120.30138724973</v>
+        <v>6.716025510714284</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4.447456481135116e-05</v>
+        <v>1.404321062310582</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.716025510714284</v>
+        <v>0.002006025186245208</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.404321062310582</v>
+        <v>6.146741943208209</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002006025186245208</v>
+        <v>0.9476477334063744</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.146741943208209</v>
+        <v>0.9765660295995325</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9476477334063744</v>
+        <v>23</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9765660295995325</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.206903661828193</v>
       </c>
     </row>
@@ -6312,72 +6264,66 @@
         <v>3.270404589819122e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3183929463967139</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.641268393490288</v>
+        <v>3.889224872867528e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02020629324236377</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.889224872867528e-06</v>
+        <v>0.0936328335326891</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02020629324236377</v>
+        <v>0.009172787983598283</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0936328335326891</v>
+        <v>1.591973883842073</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.009172787983598283</v>
+        <v>1.225749293090246</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.602215367814151</v>
+        <v>27.39764914087952</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.225749293090246</v>
+        <v>3.430639755130479e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>27.39764914087952</v>
+        <v>256124709.562088</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.430639755130479e-14</v>
+        <v>4.154477269110861e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>256124709.562088</v>
+        <v>2250.495111409201</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.154477269110861e-07</v>
+        <v>5.382375576242504e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2250.495111409201</v>
+        <v>6.308123264948372</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>5.382375576242504e-05</v>
+        <v>1.550255185113438</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.308123264948372</v>
+        <v>0.00214177744822219</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.550255185113438</v>
+        <v>5.41769973548953</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00214177744822219</v>
+        <v>0.9488861303897187</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.41769973548953</v>
+        <v>0.9709527117673279</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9488861303897187</v>
+        <v>23</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9709527117673279</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.618917321521638</v>
       </c>
     </row>
@@ -6392,72 +6338,66 @@
         <v>3.278788636592178e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2623134066964793</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.675289683355996</v>
+        <v>3.896140950710092e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02188246697803235</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.896140950710092e-06</v>
+        <v>0.09084831775633491</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02188246697803235</v>
+        <v>0.008730792251555408</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09084831775633491</v>
+        <v>1.594283219701244</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008730792251555408</v>
+        <v>1.224488208719875</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.60614004461809</v>
+        <v>28.45248837929472</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.224488208719875</v>
+        <v>3.18098196034996e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>28.45248837929472</v>
+        <v>276224508.7246147</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.18098196034996e-14</v>
+        <v>3.852173625079959e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>276224508.7246147</v>
+        <v>2427.08857474389</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.852173625079959e-07</v>
+        <v>6.126944114075669e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2427.08857474389</v>
+        <v>6.218958649240615</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>6.126944114075669e-05</v>
+        <v>1.796722191536262</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.218958649240615</v>
+        <v>0.002369623004011838</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.796722191536262</v>
+        <v>4.892126418732093</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.002369623004011838</v>
+        <v>0.9496682838076073</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.892126418732093</v>
+        <v>0.9364592115207107</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9496682838076073</v>
+        <v>23</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9364592115207107</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.501822716017315</v>
       </c>
     </row>
@@ -6472,72 +6412,66 @@
         <v>3.278760457950353e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2051144941754959</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.696330788662286</v>
+        <v>3.903521216697546e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02303252703245751</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.903521216697546e-06</v>
+        <v>0.08944314904182238</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02303252703245751</v>
+        <v>0.008529825533914424</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08944314904182238</v>
+        <v>1.611347207099928</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008529825533914424</v>
+        <v>1.367617233029029</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.557576830377192</v>
+        <v>9.952654142261077</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.367617233029029</v>
+        <v>1.590143102633807e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.952654142261077</v>
+        <v>149173558.7203528</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.590143102633807e-14</v>
+        <v>7.116572080471236e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>149173558.7203528</v>
+        <v>353.8505791508169</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.116572080471236e-07</v>
+        <v>7.164668358196e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>353.8505791508169</v>
+        <v>7.680927381121223</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>7.164668358196e-05</v>
+        <v>1.729301662809256</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.680927381121223</v>
+        <v>0.004226913987811019</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.729301662809256</v>
+        <v>4.467241091187924</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004226913987811019</v>
+        <v>0.9505985535097927</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.467241091187924</v>
+        <v>1.316654745441042</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9505985535097927</v>
+        <v>22</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.316654745441042</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.048783278911041</v>
       </c>
     </row>
@@ -6552,72 +6486,66 @@
         <v>3.271233105346384e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1482666676039047</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.705640818362392</v>
+        <v>3.911206983648519e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02381322655726355</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.911206983648519e-06</v>
+        <v>0.08893165433690153</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02381322655726355</v>
+        <v>0.00847558501523305</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08893165433690153</v>
+        <v>1.616835099197091</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00847558501523305</v>
+        <v>1.39685094927112</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.565552714721592</v>
+        <v>10.31863929708877</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.39685094927112</v>
+        <v>1.479343991260459e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>10.31863929708877</v>
+        <v>160190693.5073897</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.479343991260459e-14</v>
+        <v>6.628871066885659e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>160190693.5073897</v>
+        <v>379.6153238533842</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.628871066885659e-07</v>
+        <v>8.756704403326621e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>379.6153238533842</v>
+        <v>7.13696722825617</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>8.756704403326621e-05</v>
+        <v>1.706501680181372</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.13696722825617</v>
+        <v>0.004460341331578487</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.706501680181372</v>
+        <v>3.760312059576321</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.004460341331578487</v>
+        <v>0.9522047489788383</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.760312059576321</v>
+        <v>1.272066050895926</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9522047489788383</v>
+        <v>22</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.272066050895926</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4785922179225028</v>
       </c>
     </row>
@@ -6632,72 +6560,66 @@
         <v>3.257474958060729e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.09230501115127203</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.704747728851302</v>
+        <v>3.919074652642167e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02435116328546642</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.919074652642167e-06</v>
+        <v>0.08898130077772441</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02435116328546642</v>
+        <v>0.008510604961235228</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08898130077772441</v>
+        <v>1.617170430811985</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.008510604961235228</v>
+        <v>1.433180381129828</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.568939922240332</v>
+        <v>12.61649450784422</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.433180381129828</v>
+        <v>9.895474608860612e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>12.61649450784422</v>
+        <v>239385704.9321245</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.895474608860612e-15</v>
+        <v>4.435748325585992e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>239385704.9321245</v>
+        <v>567.0652758128128</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.435748325585992e-07</v>
+        <v>9.576765171359698e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>567.0652758128128</v>
+        <v>6.783772600463649</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>9.576765171359698e-05</v>
+        <v>1.250489648736603</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.783772600463649</v>
+        <v>0.004407186218308989</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.250489648736603</v>
+        <v>3.278283639998483</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.004407186218308989</v>
+        <v>0.952647634336477</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.278283639998483</v>
+        <v>1.346163683516556</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.952647634336477</v>
+        <v>22</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.346163683516556</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2634111315314148</v>
       </c>
     </row>
@@ -6712,72 +6634,66 @@
         <v>3.239231068389671e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.0367955082911329</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.695333122366624</v>
+        <v>3.927073855281208e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02490637113783726</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.927073855281208e-06</v>
+        <v>0.08930881355697022</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.02490637113783726</v>
+        <v>0.008596445449478381</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08930881355697022</v>
+        <v>1.672889633354842</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008596445449478381</v>
+        <v>1.689717712340463</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.59722510918997</v>
+        <v>4.779660174098838</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.689717712340463</v>
+        <v>5.378849549583935e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.779660174098838</v>
+        <v>55209694.23053809</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.378849549583935e-15</v>
+        <v>2.057905154822892e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>55209694.23053809</v>
+        <v>16.39532691341332</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.057905154822892e-06</v>
+        <v>9.585992792427083e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>16.39532691341332</v>
+        <v>6.223723374880263</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>9.585992792427083e-05</v>
+        <v>1.298985985041764</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.223723374880263</v>
+        <v>0.003713108679710289</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.298985985041764</v>
+        <v>3.320305728216327</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.003713108679710289</v>
+        <v>0.9538915233584185</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.320305728216327</v>
+        <v>1.780154574987601</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9538915233584185</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.780154574987601</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2618971436250426</v>
       </c>
     </row>
@@ -6792,72 +6708,66 @@
         <v>3.218361689500788e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.01935330584789081</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.678808986586478</v>
+        <v>3.935229535740517e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02563369345853172</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.935229535740517e-06</v>
+        <v>0.0897504372704811</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.02563369345853172</v>
+        <v>0.008712265162630481</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0897504372704811</v>
+        <v>1.630059378320205</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008712265162630481</v>
+        <v>1.662508257899765</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.554014241505453</v>
+        <v>4.749801618588727</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.662508257899765</v>
+        <v>5.446687953508025e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.749801618588727</v>
+        <v>55231312.04090881</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.446687953508025e-15</v>
+        <v>2.026330846415811e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>55231312.04090881</v>
+        <v>16.61510978155746</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.026330846415811e-06</v>
+        <v>9.513933974652029e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>16.61510978155746</v>
+        <v>6.038582400633024</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>9.513933974652029e-05</v>
+        <v>1.425303008968975</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.038582400633024</v>
+        <v>0.003469206304916512</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.425303008968975</v>
+        <v>3.3882251722987</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.003469206304916512</v>
+        <v>0.953674020808841</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.3882251722987</v>
+        <v>1.797049363669685</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.953674020808841</v>
+        <v>22</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.797049363669685</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2537600227749921</v>
       </c>
     </row>
@@ -6872,72 +6782,66 @@
         <v>3.194166096344548e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.07605756166292822</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.654523998200725</v>
+        <v>3.943569123776226e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02633552563694633</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.943569123776226e-06</v>
+        <v>0.0901708959535337</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.02633552563694633</v>
+        <v>0.008824250078373987</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0901708959535337</v>
+        <v>1.611097567935284</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008824250078373987</v>
+        <v>1.697714170952684</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.530766208023116</v>
+        <v>4.32746234642504</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.697714170952684</v>
+        <v>6.561707116401451e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.32746234642504</v>
+        <v>44015620.67193463</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.561707116401451e-15</v>
+        <v>2.516895485787457e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>44015620.67193463</v>
+        <v>12.71248642657441</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.516895485787457e-06</v>
+        <v>0.0001041001091670024</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>12.71248642657441</v>
+        <v>6.824826300050339</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001041001091670024</v>
+        <v>1.588517398029197</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.824826300050339</v>
+        <v>0.004848801328900271</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.588517398029197</v>
+        <v>3.401041350197687</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.004848801328900271</v>
+        <v>0.9534254606012721</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.401041350197687</v>
+        <v>1.809966731881715</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9534254606012721</v>
+        <v>12</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.809966731881715</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2347906077468912</v>
       </c>
     </row>
@@ -6952,72 +6856,66 @@
         <v>3.164240109009181e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1318778783328513</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.620900550403212</v>
+        <v>3.952032775151923e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02687442106072174</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.952032775151923e-06</v>
+        <v>0.09079933451784186</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02687442106072174</v>
+        <v>0.008966554333748747</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09079933451784186</v>
+        <v>1.604409126006899</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008966554333748747</v>
+        <v>1.609419162399393</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.519167333427342</v>
+        <v>4.278035581029895</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.609419162399393</v>
+        <v>6.714205855005032e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.278035581029895</v>
+        <v>43507742.92449608</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.714205855005032e-15</v>
+        <v>2.543112358460367e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>43507742.92449608</v>
+        <v>12.70947935191107</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.543112358460367e-06</v>
+        <v>0.0001202381316197479</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>12.70947935191107</v>
+        <v>8.745205985620384</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001202381316197479</v>
+        <v>1.332467809172673</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.745205985620384</v>
+        <v>0.009195647307209332</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.332467809172673</v>
+        <v>3.226866995572547</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009195647307209332</v>
+        <v>0.953423506123291</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.226866995572547</v>
+        <v>1.838931289813205</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.953423506123291</v>
+        <v>16</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.838931289813205</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2233810010218795</v>
       </c>
     </row>
@@ -7032,72 +6930,66 @@
         <v>3.127444718132204e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1858331449369632</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.577918591945298</v>
+        <v>3.960589524221016e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02754509234069187</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.960589524221016e-06</v>
+        <v>0.09159208716728004</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02754509234069187</v>
+        <v>0.009147717947052022</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09159208716728004</v>
+        <v>1.600523927610161</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009147717947052022</v>
+        <v>1.528549868964066</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.514915203538675</v>
+        <v>4.308084489197827</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.528549868964066</v>
+        <v>6.620869275274937e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.308084489197827</v>
+        <v>43618771.1819035</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.620869275274937e-15</v>
+        <v>2.529218466110765e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>43618771.1819035</v>
+        <v>12.59684734085909</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.529218466110765e-06</v>
+        <v>0.0001182082056291358</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>12.59684734085909</v>
+        <v>8.783495928987275</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001182082056291358</v>
+        <v>1.142918527084976</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.783495928987275</v>
+        <v>0.009119739509474888</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.142918527084976</v>
+        <v>3.015998585203705</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009119739509474888</v>
+        <v>0.9528039480801664</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.015998585203705</v>
+        <v>1.830744820115964</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9528039480801664</v>
+        <v>16</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.830744820115964</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2300038328119764</v>
       </c>
     </row>
@@ -7112,72 +7004,66 @@
         <v>3.083787366156287e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2378758597859479</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.526691462850911</v>
+        <v>3.969294852296164e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02856279132043949</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.969294852296164e-06</v>
+        <v>0.09250250943247175</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.02856279132043949</v>
+        <v>0.009372534231523684</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.09250250943247175</v>
+        <v>1.645007940078416</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.009372534231523684</v>
+        <v>1.6220270344666</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.562035273615763</v>
+        <v>4.222535218225813</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.6220270344666</v>
+        <v>6.89186681412177e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.222535218225813</v>
+        <v>39085402.00297873</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.89186681412177e-15</v>
+        <v>2.860726983937533e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>39085402.00297873</v>
+        <v>10.5284888700791</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.860726983937533e-06</v>
+        <v>0.0001198359948328967</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>10.5284888700791</v>
+        <v>7.556525583661386</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001198359948328967</v>
+        <v>1.225547665911235</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.556525583661386</v>
+        <v>0.006842764595597286</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.225547665911235</v>
+        <v>3.011256868808224</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006842764595597286</v>
+        <v>0.9545108238061795</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.011256868808224</v>
+        <v>1.768212250249011</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9545108238061795</v>
+        <v>15</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.768212250249011</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2296519843078665</v>
       </c>
     </row>
@@ -7192,72 +7078,66 @@
         <v>3.033987290875861e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2887754997260166</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.468384473226119</v>
+        <v>3.978242680878215e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.02997259759106503</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.978242680878215e-06</v>
+        <v>0.09365776965816382</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.02997259759106503</v>
+        <v>0.009670137265944709</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.09365776965816382</v>
+        <v>1.681430592545507</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.009670137265944709</v>
+        <v>1.537920724072828</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.599042571744565</v>
+        <v>4.310869075916545</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.537920724072828</v>
+        <v>4.656630673479889e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.310869075916545</v>
+        <v>56873364.65751044</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.656630673479889e-15</v>
+        <v>1.999133760990962e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>56873364.65751044</v>
+        <v>15.06224261593945</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.999133760990962e-06</v>
+        <v>0.0001254388924160519</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>15.06224261593945</v>
+        <v>7.414913379814045</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001254388924160519</v>
+        <v>1.378105399314531</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.414913379814045</v>
+        <v>0.006896748271550357</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.378105399314531</v>
+        <v>3.021963476115617</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.006896748271550357</v>
+        <v>0.9561499650465807</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.021963476115617</v>
+        <v>1.772097353482951</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9561499650465807</v>
+        <v>15</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.772097353482951</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2192077586292493</v>
       </c>
     </row>
@@ -7272,72 +7152,66 @@
         <v>2.979038992501942e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.339467655699995</v>
+        <v>8.921599594236721e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.403457781456717</v>
+        <v>3.987484029766632e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>8.921599594236721e-07</v>
+        <v>0.0315095442314926</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.987484029766632e-06</v>
+        <v>0.09516109776062727</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0315095442314926</v>
+        <v>0.01004846954351752</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.09516109776062727</v>
+        <v>1.728279275810926</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01004846954351752</v>
+        <v>1.793515912286247</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.650013845528421</v>
+        <v>4.383856967389275</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.793515912286247</v>
+        <v>3.768032424633573e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.383856967389275</v>
+        <v>71303669.36231586</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.768032424633573e-15</v>
+        <v>1.618994207945003e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>71303669.36231586</v>
+        <v>19.15748043450289</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.618994207945003e-06</v>
+        <v>0.0001324321524316473</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>19.15748043450289</v>
+        <v>7.504770026104991</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001324321524316473</v>
+        <v>1.427165688406871</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.504770026104991</v>
+        <v>0.007458787159892251</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.427165688406871</v>
+        <v>3.015024306092911</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.007458787159892251</v>
+        <v>0.9584047423394871</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.015024306092911</v>
+        <v>1.729561806247907</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9584047423394871</v>
+        <v>15</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.729561806247907</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2062112481223183</v>
       </c>
     </row>
@@ -7352,72 +7226,66 @@
         <v>2.919716513822833e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.3905019353621083</v>
+        <v>8.921576410524183e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.331771590906581</v>
+        <v>3.9970154133911e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8.921576410524183e-07</v>
+        <v>0.03311387556168533</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.9970154133911e-06</v>
+        <v>0.09698351844661672</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.03311387556168533</v>
+        <v>0.0105022881506149</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.09698351844661672</v>
+        <v>1.722666824247531</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0105022881506149</v>
+        <v>1.798689502020145</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.640679738679327</v>
+        <v>4.482418559299213</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.798689502020145</v>
+        <v>3.604147597029721e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.482418559299213</v>
+        <v>73758589.12760818</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.604147597029721e-15</v>
+        <v>1.562090341224871e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>73758589.12760818</v>
+        <v>19.60775038669403</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.562090341224871e-06</v>
+        <v>0.0001377122242764648</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>19.60775038669403</v>
+        <v>8.285335062029727</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001377122242764648</v>
+        <v>1.313205229833484</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.285335062029727</v>
+        <v>0.009453500362488218</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.313205229833484</v>
+        <v>2.927223984248638</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.009453500362488218</v>
+        <v>0.9590198157444075</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.927223984248638</v>
+        <v>1.74731502609541</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9590198157444075</v>
+        <v>15</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.74731502609541</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2026187629862422</v>
       </c>
     </row>
@@ -7432,72 +7300,66 @@
         <v>2.856892195989243e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4424648201439517</v>
+        <v>8.903343768268401e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.252619866649496</v>
+        <v>4.006814788281106e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.903343768268401e-07</v>
+        <v>0.03480815382812932</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.006814788281106e-06</v>
+        <v>0.09913027157276263</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03480815382812932</v>
+        <v>0.0110381594384565</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09913027157276263</v>
+        <v>1.71128324309666</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0110381594384565</v>
+        <v>1.725643935930115</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.628536989653623</v>
+        <v>4.401095160437915</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.725643935930115</v>
+        <v>3.73857300053281e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.401095160437915</v>
+        <v>72386228.56208409</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.73857300053281e-15</v>
+        <v>1.587722552464787e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>72386228.56208409</v>
+        <v>19.58924801614199</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.587722552464787e-06</v>
+        <v>0.0001358792075255787</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>19.58924801614199</v>
+        <v>8.818830629807842</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001358792075255787</v>
+        <v>1.276894214322046</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.818830629807842</v>
+        <v>0.01056756697512162</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.276894214322046</v>
+        <v>2.820617910140923</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01056756697512162</v>
+        <v>0.9584674583838253</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.820617910140923</v>
+        <v>1.747681833053879</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9584674583838253</v>
+        <v>8</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.747681833053879</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2123108612423243</v>
       </c>
     </row>
@@ -7512,72 +7374,66 @@
         <v>2.791256456981378e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.4961026044564938</v>
+        <v>8.890390155607088e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.165766244411456</v>
+        <v>4.016968868728144e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.890390155607088e-07</v>
+        <v>0.03726864977021643</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.016968868728144e-06</v>
+        <v>0.1017551784746538</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03726864977021643</v>
+        <v>0.01174228393651712</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1017551784746538</v>
+        <v>1.710218936720428</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01174228393651712</v>
+        <v>1.74149491032333</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.627853812722138</v>
+        <v>4.261407424381442</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.74149491032333</v>
+        <v>4.165532721177e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.261407424381442</v>
+        <v>67854442.86765864</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.165532721177e-15</v>
+        <v>1.703734914579875e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>67854442.86765864</v>
+        <v>19.17905162968992</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.703734914579875e-06</v>
+        <v>0.0001285879529601833</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>19.17905162968992</v>
+        <v>8.060524953594154</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001285879529601833</v>
+        <v>1.310696522905693</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.060524953594154</v>
+        <v>0.008354624520014063</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.310696522905693</v>
+        <v>2.916426461454405</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008354624520014063</v>
+        <v>0.9590705230097688</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.916426461454405</v>
+        <v>1.74249022899394</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9590705230097688</v>
+        <v>8</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.74249022899394</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2185855608446302</v>
       </c>
     </row>
@@ -7592,72 +7448,66 @@
         <v>2.723135392542115e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.5514646548850308</v>
+        <v>8.874279652038091e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.072765208903931</v>
+        <v>4.02766784233991e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.874279652038091e-07</v>
+        <v>0.04045046607942066</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.02766784233991e-06</v>
+        <v>0.1050394017241991</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.04045046607942066</v>
+        <v>0.01266804581283479</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1050394017241991</v>
+        <v>1.703249262929113</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01266804581283479</v>
+        <v>1.736085003934102</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.614616006594368</v>
+        <v>4.297988605708699</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.736085003934102</v>
+        <v>4.4038387750769e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.297988605708699</v>
+        <v>64283466.6806659</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.4038387750769e-15</v>
+        <v>1.793064602645439e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>64283466.6806659</v>
+        <v>18.19826520560239</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.793064602645439e-06</v>
+        <v>0.0001282170666296325</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>18.19826520560239</v>
+        <v>7.604253123703635</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001282170666296325</v>
+        <v>1.458454553680107</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.604253123703635</v>
+        <v>0.007414108998142396</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.458454553680107</v>
+        <v>3.019640706306975</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.007414108998142396</v>
+        <v>0.9591902983309406</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.019640706306975</v>
+        <v>1.742535375103668</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9591902983309406</v>
+        <v>8</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.742535375103668</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2156514541230299</v>
       </c>
     </row>
@@ -7672,72 +7522,66 @@
         <v>2.654402715858504e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.6081561462688979</v>
+        <v>8.810128997012954e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.9748846295146403</v>
+        <v>4.03904283733493e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>8.810128997012954e-07</v>
+        <v>0.04431379107599977</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.03904283733493e-06</v>
+        <v>0.109477499765046</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.04431379107599977</v>
+        <v>0.0139462231301335</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.109477499765046</v>
+        <v>1.6514764057979</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0139462231301335</v>
+        <v>1.722463076190922</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.565772305040637</v>
+        <v>4.429805855754207</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.722463076190922</v>
+        <v>5.041356255937317e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.429805855754207</v>
+        <v>55436166.73539535</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.041356255937317e-15</v>
+        <v>1.9994133519443e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>55436166.73539535</v>
+        <v>15.49293765800149</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.9994133519443e-06</v>
+        <v>0.0001354697608474884</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>15.49293765800149</v>
+        <v>8.206698590339791</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001354697608474884</v>
+        <v>1.432442728737192</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.206698590339791</v>
+        <v>0.009123875083538086</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.432442728737192</v>
+        <v>2.948951547856951</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.009123875083538086</v>
+        <v>0.9563593277791169</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.948951547856951</v>
+        <v>1.738846201155966</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9563593277791169</v>
+        <v>9</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.738846201155966</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.210317544632094</v>
       </c>
     </row>
@@ -7752,72 +7596,66 @@
         <v>2.588565442032193e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.6648687545166019</v>
+        <v>8.669278055789878e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.8712784870305517</v>
+        <v>4.051138727985741e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>8.669278055789878e-07</v>
+        <v>0.04770144744278727</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.051138727985741e-06</v>
+        <v>0.1138070526101023</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04770144744278727</v>
+        <v>0.01522611988336122</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1138070526101023</v>
+        <v>1.557346309926335</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01522611988336122</v>
+        <v>1.487645789004576</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.465567996327175</v>
+        <v>5.100805267948965</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.487645789004576</v>
+        <v>9.798969953317006e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.100805267948965</v>
+        <v>29883922.81998172</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>9.798969953317006e-15</v>
+        <v>3.537496533113956e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>29883922.81998172</v>
+        <v>8.75095878048552</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.537496533113956e-06</v>
+        <v>0.0001421970189229525</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>8.75095878048552</v>
+        <v>8.879927613936594</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001421970189229525</v>
+        <v>1.409546072922268</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.879927613936594</v>
+        <v>0.01121267780455923</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.409546072922268</v>
+        <v>2.926519709283644</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01121267780455923</v>
+        <v>0.9511742512713104</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.926519709283644</v>
+        <v>1.845406649149314</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9511742512713104</v>
+        <v>9</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.845406649149314</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2106554374570379</v>
       </c>
     </row>
@@ -7832,72 +7670,66 @@
         <v>2.526660831995799e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.7219480724916443</v>
+        <v>8.445339487110749e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.7539029004212789</v>
+        <v>4.063518597722853e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>8.445339487110749e-07</v>
+        <v>0.04876997995512206</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.063518597722853e-06</v>
+        <v>0.1166395298180966</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04876997995512206</v>
+        <v>0.01598296111843324</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1166395298180966</v>
+        <v>1.534500900945757</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01598296111843324</v>
+        <v>1.444052689954403</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.44323029338291</v>
+        <v>3.989327935372193</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.444052689954403</v>
+        <v>1.603940735409269e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.989327935372193</v>
+        <v>18041546.41548457</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.603940735409269e-14</v>
+        <v>5.767450260910676e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>18041546.41548457</v>
+        <v>5.220785344175621</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.767450260910676e-06</v>
+        <v>0.0001437704116520208</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>5.220785344175621</v>
+        <v>8.554101433906764</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001437704116520208</v>
+        <v>1.469792588562809</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.554101433906764</v>
+        <v>0.01052006220504671</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.469792588562809</v>
+        <v>3.09672450627548</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01052006220504671</v>
+        <v>0.9493544196442678</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.09672450627548</v>
+        <v>1.842690112197512</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9493544196442678</v>
+        <v>9</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.842690112197512</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1931736860132703</v>
       </c>
     </row>
@@ -7912,72 +7744,66 @@
         <v>2.466493350749051e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.7827473700450965</v>
+        <v>8.206919373301251e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.6135945646769012</v>
+        <v>4.075667598355807e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>8.206919373301251e-07</v>
+        <v>0.04843639504523706</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.075667598355807e-06</v>
+        <v>0.1194732981343043</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04843639504523706</v>
+        <v>0.01661969689834994</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1194732981343043</v>
+        <v>1.508438263191136</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01661969689834994</v>
+        <v>1.444464868829388</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.416131846362908</v>
+        <v>3.968865930753983</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.444464868829388</v>
+        <v>1.620522019228758e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.968865930753983</v>
+        <v>17959344.70260812</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.620522019228758e-14</v>
+        <v>5.702125318080708e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>17959344.70260812</v>
+        <v>5.226800317487463</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.702125318080708e-06</v>
+        <v>0.0001309558988058491</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>5.226800317487463</v>
+        <v>9.332673606839995</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001309558988058491</v>
+        <v>1.297855660580752</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.332673606839995</v>
+        <v>0.01140610120044537</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.297855660580752</v>
+        <v>3.143707564817094</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01140610120044537</v>
+        <v>0.948420751520667</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.143707564817094</v>
+        <v>1.890360301001807</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.948420751520667</v>
+        <v>9</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.890360301001807</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1914109415082834</v>
       </c>
     </row>
@@ -7992,72 +7818,66 @@
         <v>2.405822326407932e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.8487081496660707</v>
+        <v>8.033164674026741e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.4456535909411441</v>
+        <v>4.087425848194818e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>8.033164674026741e-07</v>
+        <v>0.04823527307293148</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.087425848194818e-06</v>
+        <v>0.1226951229534602</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04823527307293148</v>
+        <v>0.01738089729003735</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1226951229534602</v>
+        <v>1.537371381732301</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01738089729003735</v>
+        <v>1.562485177290206</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.441060890828282</v>
+        <v>3.993175827990609</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.562485177290206</v>
+        <v>1.600851055234999e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.993175827990609</v>
+        <v>17869805.05059757</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.600851055234999e-14</v>
+        <v>5.809629258668979e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>17869805.05059757</v>
+        <v>5.111996594849651</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.809629258668979e-06</v>
+        <v>0.0001205099831205903</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>5.111996594849651</v>
+        <v>9.156045758220715</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001205099831205903</v>
+        <v>1.249380491540348</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.156045758220715</v>
+        <v>0.01010273437484388</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.249380491540348</v>
+        <v>3.038244696726543</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01010273437484388</v>
+        <v>0.948479044096686</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.038244696726543</v>
+        <v>1.876354250591758</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.948479044096686</v>
+        <v>9</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.876354250591758</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2024599453768055</v>
       </c>
     </row>
@@ -8072,72 +7892,66 @@
         <v>2.341458063928996e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.9175869288431613</v>
+        <v>7.972112281872614e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.2509836802773813</v>
+        <v>4.098967277831324e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.972112281872614e-07</v>
+        <v>0.04918220311956708</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.098967277831324e-06</v>
+        <v>0.1261678078919629</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04918220311956708</v>
+        <v>0.01833750060392848</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1261678078919629</v>
+        <v>1.535126896153283</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01833750060392848</v>
+        <v>1.571115800868788</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.441689366911353</v>
+        <v>4.11365168815809</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.571115800868788</v>
+        <v>1.508456397131737e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.11365168815809</v>
+        <v>19219870.00960656</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.508456397131737e-14</v>
+        <v>5.365410324325166e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>19219870.00960656</v>
+        <v>5.572289266584177</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.365410324325166e-06</v>
+        <v>0.0001225268084550701</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>5.572289266584177</v>
+        <v>8.477921180473514</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001225268084550701</v>
+        <v>1.299066893643521</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.477921180473514</v>
+        <v>0.008806632435597922</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.299066893643521</v>
+        <v>2.994520524436759</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.008806632435597922</v>
+        <v>0.9475545886171337</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.994520524436759</v>
+        <v>1.86780867540342</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9475545886171337</v>
+        <v>12</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.86780867540342</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2013665565865202</v>
       </c>
     </row>
@@ -8152,72 +7966,66 @@
         <v>2.270708462155751e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.9864848777750286</v>
+        <v>7.960032059894329e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.03179301286369185</v>
+        <v>4.110475727744292e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7.960032059894329e-07</v>
+        <v>0.05049917380483294</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.110475727744292e-06</v>
+        <v>0.1302020935908297</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05049917380483294</v>
+        <v>0.01950298154134265</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1302020935908297</v>
+        <v>1.521228214888259</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01950298154134265</v>
+        <v>1.510705366626171</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.426532073870647</v>
+        <v>3.980240060153097</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.510705366626171</v>
+        <v>1.611273486110236e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.980240060153097</v>
+        <v>18479353.37132072</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.611273486110236e-14</v>
+        <v>5.58733503197822e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>18479353.37132072</v>
+        <v>5.50228144961534</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.58733503197822e-06</v>
+        <v>0.0001256092590403953</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>5.50228144961534</v>
+        <v>7.828604744511139</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001256092590403953</v>
+        <v>1.380402882083108</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.828604744511139</v>
+        <v>0.007698221221362711</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.380402882083108</v>
+        <v>3.030042543772705</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007698221221362711</v>
+        <v>0.9464051511318967</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.030042543772705</v>
+        <v>1.885177304609564</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9464051511318967</v>
+        <v>7</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.885177304609564</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1987649494199766</v>
       </c>
     </row>
@@ -8232,72 +8040,66 @@
         <v>2.190785739568281e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.054540572880651</v>
+        <v>7.95191450115676e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.2135604107999298</v>
+        <v>4.121827544997157e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.95191450115676e-07</v>
+        <v>0.05115339676439045</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.121827544997157e-06</v>
+        <v>0.1356956806669185</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05115339676439045</v>
+        <v>0.02102989010074322</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1356956806669185</v>
+        <v>1.49714360637872</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02102989010074322</v>
+        <v>1.457611047160553</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.404986239888637</v>
+        <v>3.923163915688509</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.457611047160553</v>
+        <v>1.658497746229792e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.923163915688509</v>
+        <v>17989841.68067066</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.658497746229792e-14</v>
+        <v>5.677161921624033e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>17989841.68067066</v>
+        <v>5.367469291315674</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.677161921624033e-06</v>
+        <v>0.0001278032959413154</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>5.367469291315674</v>
+        <v>7.491516144826601</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001278032959413154</v>
+        <v>1.543129321429155</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.491516144826601</v>
+        <v>0.007172680625641546</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.543129321429155</v>
+        <v>3.099737816135422</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007172680625641546</v>
+        <v>0.9407693675718558</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.099737816135422</v>
+        <v>1.879420095202371</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9407693675718558</v>
+        <v>7</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.879420095202371</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1947957653526314</v>
       </c>
     </row>
@@ -8312,72 +8114,66 @@
         <v>2.099817826716537e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-1.119514765879589</v>
+        <v>7.950630636372341e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.4849877162943401</v>
+        <v>4.132885932984583e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>7.950630636372341e-07</v>
+        <v>0.05197672332112584</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.132885932984583e-06</v>
+        <v>0.1424946973146044</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.05197672332112584</v>
+        <v>0.02300629719907125</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1424946973146044</v>
+        <v>1.506353286174846</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02300629719907125</v>
+        <v>1.444487621262545</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.410900363872641</v>
+        <v>4.002808937131141</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.444487621262545</v>
+        <v>1.593155151195966e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.002808937131141</v>
+        <v>19615833.66352054</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.593155151195966e-14</v>
+        <v>5.316697874499372e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>19615833.66352054</v>
+        <v>6.130157212131683</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.316697874499372e-06</v>
+        <v>0.000125280477452476</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>6.130157212131683</v>
+        <v>8.002816751678006</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.000125280477452476</v>
+        <v>1.396307471277899</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.002816751678006</v>
+        <v>0.008023597694866423</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.396307471277899</v>
+        <v>3.101163473399249</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008023597694866423</v>
+        <v>0.9415467615128978</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.101163473399249</v>
+        <v>1.863896599643928</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9415467615128978</v>
+        <v>12</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.863896599643928</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1952693756599187</v>
       </c>
     </row>
@@ -8392,72 +8188,66 @@
         <v>1.996988009523816e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-1.175247753699911</v>
+        <v>7.941687852868173e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.7709381298155891</v>
+        <v>4.143677906026143e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>7.941687852868173e-07</v>
+        <v>0.05341515081331366</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.143677906026143e-06</v>
+        <v>0.1505479632894006</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.05341515081331366</v>
+        <v>0.02551794811017411</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1505479632894006</v>
+        <v>1.510242413290025</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02551794811017411</v>
+        <v>1.499591364482628</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.418409360802074</v>
+        <v>4.06989768195918</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.499591364482628</v>
+        <v>1.541064483280082e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.06989768195918</v>
+        <v>20624556.00285561</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.541064483280082e-14</v>
+        <v>5.070279995279934e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>20624556.00285561</v>
+        <v>6.555261595971278</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>5.070279995279934e-06</v>
+        <v>0.0001188233487990847</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>6.555261595971278</v>
+        <v>8.477026430848692</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001188233487990847</v>
+        <v>1.2659184983303</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.477026430848692</v>
+        <v>0.008538643124753467</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.2659184983303</v>
+        <v>3.018208820752633</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.008538643124753467</v>
+        <v>0.9415051541719293</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.018208820752633</v>
+        <v>1.876058566284701</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9415051541719293</v>
+        <v>13</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.876058566284701</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2078053209947054</v>
       </c>
     </row>
@@ -8472,72 +8262,66 @@
         <v>1.882293540486599e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-1.212892106515765</v>
+        <v>7.89264047204378e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1.047488178604836</v>
+        <v>4.154186820285364e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>7.89264047204378e-07</v>
+        <v>0.05475789190412424</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.154186820285364e-06</v>
+        <v>0.1607664544197951</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.05475789190412424</v>
+        <v>0.02884372798128109</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1607664544197951</v>
+        <v>1.490150134178009</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02884372798128109</v>
+        <v>1.494288424002472</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.396615297148274</v>
+        <v>4.06014908264691</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.494288424002472</v>
+        <v>1.548473696866597e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.06014908264691</v>
+        <v>20297178.61859842</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.548473696866597e-14</v>
+        <v>5.100687608290772e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>20297178.61859842</v>
+        <v>6.379331633714049</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>5.100687608290772e-06</v>
+        <v>0.0001143581294242523</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>6.379331633714049</v>
+        <v>7.639320097401656</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001143581294242523</v>
+        <v>1.247329070413283</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.639320097401656</v>
+        <v>0.006673850267596817</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.247329070413283</v>
+        <v>3.091615620341578</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.006673850267596817</v>
+        <v>0.9419729050322255</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.091615620341578</v>
+        <v>1.886140295283633</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9419729050322255</v>
+        <v>13</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.886140295283633</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2087058338485554</v>
       </c>
     </row>
@@ -8552,72 +8336,66 @@
         <v>1.756614728157271e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-1.220011007667551</v>
+        <v>7.76760976625177e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.276563837223361</v>
+        <v>4.164212066852737e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>7.76760976625177e-07</v>
+        <v>0.05523674059174954</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.164212066852737e-06</v>
+        <v>0.1740302063045407</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.05523674059174954</v>
+        <v>0.03333603207098688</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1740302063045407</v>
+        <v>1.494209385904349</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.03333603207098688</v>
+        <v>1.516027767306128</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.398925332412004</v>
+        <v>4.074574581511818</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.516027767306128</v>
+        <v>1.537528768211754e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.074574581511818</v>
+        <v>20721785.0500695</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.537528768211754e-14</v>
+        <v>5.011147776801706e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>20721785.0500695</v>
+        <v>6.602031304300121</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.011147776801706e-06</v>
+        <v>0.0001180283416154608</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>6.602031304300121</v>
+        <v>7.212520834738239</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001180283416154608</v>
+        <v>1.375780525332666</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.212520834738239</v>
+        <v>0.006139888245183397</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.375780525332666</v>
+        <v>3.094204196088482</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.006139888245183397</v>
+        <v>0.9404871734037463</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.094204196088482</v>
+        <v>1.872889009916282</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9404871734037463</v>
+        <v>13</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.872889009916282</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2094166378286826</v>
       </c>
     </row>
@@ -8632,72 +8410,66 @@
         <v>1.623303972669811e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.180276472948681</v>
+        <v>7.549722967536703e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1.402526041020165</v>
+        <v>4.173534086983137e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>7.549722967536703e-07</v>
+        <v>0.05490198166607353</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.173534086983137e-06</v>
+        <v>0.1901011092947914</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.05490198166607353</v>
+        <v>0.03914968635532122</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1901011092947914</v>
+        <v>1.50088018141092</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03914968635532122</v>
+        <v>1.444939700282992</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.408983932410669</v>
+        <v>4.174580677160314</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.444939700282992</v>
+        <v>1.464745176510056e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.174580677160314</v>
+        <v>21417933.9254929</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.464745176510056e-14</v>
+        <v>4.84489923889148e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>21417933.9254929</v>
+        <v>6.71919469535091</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>4.84489923889148e-06</v>
+        <v>0.0001278504319246447</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>6.71919469535091</v>
+        <v>7.718034466400653</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001278504319246447</v>
+        <v>1.517358077056328</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.718034466400653</v>
+        <v>0.007615801691649951</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.517358077056328</v>
+        <v>3.011120158781647</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.007615801691649951</v>
+        <v>0.9400611963682696</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.011120158781647</v>
+        <v>1.887791684837485</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9400611963682696</v>
+        <v>17</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.887791684837485</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2125463385941609</v>
       </c>
     </row>
@@ -8712,72 +8484,66 @@
         <v>1.487217468027764e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-1.072516062464746</v>
+        <v>7.236502546265843e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1.34364118023835</v>
+        <v>4.181988441875108e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>7.236502546265843e-07</v>
+        <v>0.05359597776725659</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>4.181988441875108e-06</v>
+        <v>0.208585032620496</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.05359597776725659</v>
+        <v>0.04637481845626776</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.208585032620496</v>
+        <v>1.49157634775031</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.04637481845626776</v>
+        <v>1.458546704226047</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.401194699521899</v>
+        <v>4.366214824332356</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.458546704226047</v>
+        <v>1.338990802842212e-14</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.366214824332356</v>
+        <v>22608232.32859321</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1.338990802842212e-14</v>
+        <v>4.495236576167358e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>22608232.32859321</v>
+        <v>6.844012733594544</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>4.495236576167358e-06</v>
+        <v>0.0001381958090169812</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>6.844012733594544</v>
+        <v>8.533051619309534</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001381958090169812</v>
+        <v>1.578688939188758</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.533051619309534</v>
+        <v>0.01006244728748354</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.578688939188758</v>
+        <v>2.945999660227608</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01006244728748354</v>
+        <v>0.9381264553733407</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.945999660227608</v>
+        <v>1.887894353384145</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9381264553733407</v>
+        <v>18</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.887894353384145</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2229541978067189</v>
       </c>
     </row>
@@ -8792,72 +8558,66 @@
         <v>1.355667430216702e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.8817964140250865</v>
+        <v>6.796200743026788e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1.033394948377365</v>
+        <v>4.18942807571585e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>6.796200743026788e-07</v>
+        <v>0.05083887519887902</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>4.18942807571585e-06</v>
+        <v>0.2277307427544291</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.05083887519887902</v>
+        <v>0.05443626204410169</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.2277307427544291</v>
+        <v>1.495857294651903</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.05443626204410169</v>
+        <v>1.424230486598694</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.408395860695578</v>
+        <v>4.46102643465044</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.424230486598694</v>
+        <v>1.282679636869106e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.46102643465044</v>
+        <v>23631790.63937789</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.282679636869106e-14</v>
+        <v>4.302652397110414e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>23631790.63937789</v>
+        <v>7.163272309965498</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>4.302652397110414e-06</v>
+        <v>0.000138468241359146</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>7.163272309965498</v>
+        <v>9.114253086740819</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.000138468241359146</v>
+        <v>1.561218715986526</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.114253086740819</v>
+        <v>0.01150250271420072</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.561218715986526</v>
+        <v>2.932659930712452</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01150250271420072</v>
+        <v>0.9384825729304989</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.932659930712452</v>
+        <v>1.874189630623715</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9384825729304989</v>
+        <v>18</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.874189630623715</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2551939324927497</v>
       </c>
     </row>
@@ -8872,72 +8632,66 @@
         <v>1.237539317363909e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.6194081336642588</v>
+        <v>6.247858242616986e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.5054398481489586</v>
+        <v>4.195754577294787e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>6.247858242616986e-07</v>
+        <v>0.04660848926311146</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4.195754577294787e-06</v>
+        <v>0.2450956355953361</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.04660848926311146</v>
+        <v>0.06222962064984294</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.2450956355953361</v>
+        <v>1.536001333968766</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.06222962064984294</v>
+        <v>1.521344664078257</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.448062791574686</v>
+        <v>4.096644978857844</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.521344664078257</v>
+        <v>1.198889061010625e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.096644978857844</v>
+        <v>24477534.47934609</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.198889061010625e-14</v>
+        <v>4.274909554751378e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>24477534.47934609</v>
+        <v>7.183140142693465</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>4.274909554751378e-06</v>
+        <v>0.0001160320097090336</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>7.183140142693465</v>
+        <v>8.146558860215109</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001160320097090336</v>
+        <v>1.815765749610081</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.146558860215109</v>
+        <v>0.007700629236336347</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.815765749610081</v>
+        <v>3.26267867370087</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.007700629236336347</v>
+        <v>0.9420486909430885</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.26267867370087</v>
+        <v>1.871895131665955</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9420486909430885</v>
+        <v>17</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.871895131665955</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.272578046544792</v>
       </c>
     </row>
@@ -8952,72 +8706,66 @@
         <v>1.139569629794422e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.3284160979354002</v>
+        <v>5.642907702882199e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.08896125965012969</v>
+        <v>4.200973465467433e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>5.642907702882199e-07</v>
+        <v>0.04098163507889804</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>4.200973465467433e-06</v>
+        <v>0.2589772963070331</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.04098163507889804</v>
+        <v>0.06873020836625714</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.2589772963070331</v>
+        <v>1.585550593458014</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.06873020836625714</v>
+        <v>1.43676018406344</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.490419323139554</v>
+        <v>4.523249255786281</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.43676018406344</v>
+        <v>9.834099877539427e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.523249255786281</v>
+        <v>30421490.41128216</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.834099877539427e-15</v>
+        <v>3.630149488904416e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>30421490.41128216</v>
+        <v>9.101135686723921</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>3.630149488904416e-06</v>
+        <v>0.0001101411411866451</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>9.101135686723921</v>
+        <v>7.267972836508817</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001101411411866451</v>
+        <v>1.790868832444413</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>7.267972836508817</v>
+        <v>0.005818032768218512</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.790868832444413</v>
+        <v>3.28184597680248</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.005818032768218512</v>
+        <v>0.9432204604078132</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.28184597680248</v>
+        <v>1.826121433393182</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9432204604078132</v>
+        <v>18</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.826121433393182</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2827347262892523</v>
       </c>
     </row>
@@ -9032,72 +8780,66 @@
         <v>1.064823283697891e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.0613238295131948</v>
+        <v>5.050748417022557e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.585432298635514</v>
+        <v>4.205061895185122e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>5.050748417022557e-07</v>
+        <v>0.03288798587543514</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>4.205061895185122e-06</v>
+        <v>0.26959181019241</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.03288798587543514</v>
+        <v>0.07374099775264471</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.26959181019241</v>
+        <v>1.607328245371509</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.07374099775264471</v>
+        <v>1.543816435088207</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.511538833745271</v>
+        <v>4.278933934799378</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.543816435088207</v>
+        <v>5.182525103471376e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.278933934799378</v>
+        <v>57327489.80679715</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>5.182525103471376e-15</v>
+        <v>1.940154198529841e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>57327489.80679715</v>
+        <v>17.03206343729951</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.940154198529841e-06</v>
+        <v>0.0001113520705579627</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>17.03206343729951</v>
+        <v>7.40992299264558</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001113520705579627</v>
+        <v>1.487716951350681</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>7.40992299264558</v>
+        <v>0.006114003545625667</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.487716951350681</v>
+        <v>3.072836116600173</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.006114003545625667</v>
+        <v>0.9426763815406759</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.072836116600173</v>
+        <v>1.821188670650904</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9426763815406759</v>
+        <v>18</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.821188670650904</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2730192238074499</v>
       </c>
     </row>
@@ -9112,72 +8854,66 @@
         <v>1.013891743408586e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.1381820103584356</v>
+        <v>4.46625025483542e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.8925703329585897</v>
+        <v>4.207968860878285e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>4.46625025483542e-07</v>
+        <v>0.02295870900412601</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>4.207968860878285e-06</v>
+        <v>0.2748240202469308</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.02295870900412601</v>
+        <v>0.07603328302084672</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.2748240202469308</v>
+        <v>1.627889579710854</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.07603328302084672</v>
+        <v>1.800381176486106</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.532506673922615</v>
+        <v>4.233556593635676</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.800381176486106</v>
+        <v>4.561857379798584e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.233556593635676</v>
+        <v>65350379.68313609</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.561857379798584e-15</v>
+        <v>1.719332785894771e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>65350379.68313609</v>
+        <v>19.48219714889986</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.719332785894771e-06</v>
+        <v>0.0001115763587070456</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>19.48219714889986</v>
+        <v>7.196403300269864</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001115763587070456</v>
+        <v>1.517478832349771</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>7.196403300269864</v>
+        <v>0.005778341062859581</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.517478832349771</v>
+        <v>3.156673213692127</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.005778341062859581</v>
+        <v>0.9451545696934703</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.156673213692127</v>
+        <v>1.822908105218896</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9451545696934703</v>
+        <v>21</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.822908105218896</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2695263346960989</v>
       </c>
     </row>
@@ -9554,7 +9290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.391494151605553</v>
+        <v>1.392569357993452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.088833793982356</v>
@@ -9643,7 +9379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.385474794649937</v>
+        <v>1.385925685097602</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.114578507967113</v>
@@ -9732,7 +9468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.416573904623859</v>
+        <v>1.415867150880642</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.153328144637415</v>
@@ -9821,7 +9557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.447443220182534</v>
+        <v>1.44138448233861</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.073944249538494</v>
@@ -9910,7 +9646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.457533883522082</v>
+        <v>1.455616505142739</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.996012546406268</v>
@@ -9999,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.455555528318486</v>
+        <v>1.449250405616056</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.06244974235393</v>
@@ -10088,7 +9824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.453527785851591</v>
+        <v>1.441265340001811</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.05045460821235</v>
@@ -10177,7 +9913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.453752764141197</v>
+        <v>1.443277255816598</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.080083670275343</v>
@@ -10266,7 +10002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.433082630932079</v>
+        <v>1.415370603001789</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.017880588693162</v>
@@ -10355,7 +10091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.4207448196157</v>
+        <v>1.413702590772627</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.022021957929367</v>
@@ -10444,7 +10180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443956448492091</v>
+        <v>1.43640976016618</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.074557698530243</v>
@@ -10533,7 +10269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.491799289024226</v>
+        <v>1.479935556583299</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.066596077768292</v>
@@ -10622,7 +10358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.500485803077104</v>
+        <v>1.48733644414737</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.096096355662923</v>
@@ -10711,7 +10447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.50119394366839</v>
+        <v>1.491991035235832</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.217592520660133</v>
@@ -10800,7 +10536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5011583812446</v>
+        <v>1.487701730639559</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.116597528637687</v>
@@ -10889,7 +10625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.51983656629023</v>
+        <v>1.499414842127731</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.14899745716665</v>
@@ -10978,7 +10714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544450188565889</v>
+        <v>1.526783026008876</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.181750109029783</v>
@@ -11067,7 +10803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.54231142561817</v>
+        <v>1.523914718413082</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.106438309414147</v>
@@ -11156,7 +10892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.526905576595647</v>
+        <v>1.497232054316828</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.268684426380565</v>
@@ -11245,7 +10981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491673142237845</v>
+        <v>1.481327741945966</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.129053583783059</v>
@@ -11334,7 +11070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492863032349081</v>
+        <v>1.485714608146986</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.116163204879966</v>
@@ -11423,7 +11159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492289099878871</v>
+        <v>1.487724008785936</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.12076944232788</v>
@@ -11512,7 +11248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.496651615353663</v>
+        <v>1.49053368128341</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.145466149219908</v>
@@ -11601,7 +11337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.53379768222826</v>
+        <v>1.533458437209623</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.038592482731836</v>
@@ -11690,7 +11426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.539633381544362</v>
+        <v>1.537737820700265</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.192521361975009</v>
@@ -11779,7 +11515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.538565222791502</v>
+        <v>1.540751097375616</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.222435736146444</v>
@@ -11868,7 +11604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.536918010961842</v>
+        <v>1.538318310489248</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.238695724544214</v>
@@ -11957,7 +11693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.534153672682374</v>
+        <v>1.535128375800339</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.272900508227293</v>
@@ -12046,7 +11782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538371958665573</v>
+        <v>1.539816029248697</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.269321179680963</v>
@@ -12135,7 +11871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540963772304535</v>
+        <v>1.546896467203081</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.284527175078327</v>
@@ -12224,7 +11960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.523215645420735</v>
+        <v>1.531438330905033</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.395284439799402</v>
@@ -12313,7 +12049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.531267839003612</v>
+        <v>1.53968091106098</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.271622072678089</v>
@@ -12402,7 +12138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.511178884820613</v>
+        <v>1.514605758708768</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.370113245489315</v>
@@ -12491,7 +12227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.539821994693361</v>
+        <v>1.549115470595954</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.132642284105636</v>
@@ -12580,7 +12316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.553108222428161</v>
+        <v>1.558649207742667</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.139261263412939</v>
@@ -12669,7 +12405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.547306841896428</v>
+        <v>1.553343389596686</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.151607868706327</v>
@@ -12758,7 +12494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.564405352788105</v>
+        <v>1.566833123945665</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.130913395828897</v>
@@ -12847,7 +12583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.565701038514568</v>
+        <v>1.567486193994779</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.153505549246115</v>
@@ -12936,7 +12672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.555857636110072</v>
+        <v>1.5533119497769</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.203766978857836</v>
@@ -13025,7 +12761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.554208040047883</v>
+        <v>1.549738148464745</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.169945143120416</v>
@@ -13114,7 +12850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.546856549861959</v>
+        <v>1.54630567020877</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.191625474329476</v>
@@ -13203,7 +12939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.548892077317926</v>
+        <v>1.548827547075174</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.202264396115786</v>
@@ -13292,7 +13028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.555442678378299</v>
+        <v>1.557287945785821</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.15482183443958</v>
@@ -13381,7 +13117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.558075542047335</v>
+        <v>1.557287998771822</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.157933432328197</v>
@@ -13470,7 +13206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.53616659084182</v>
+        <v>1.535013743998655</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.19646959440651</v>
@@ -13559,7 +13295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.563979247353159</v>
+        <v>1.555056139546774</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.162875224059404</v>
@@ -13648,7 +13384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.549213322661033</v>
+        <v>1.546632974996757</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.15069377172418</v>
@@ -13737,7 +13473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613279727830149</v>
+        <v>1.602646353189586</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.193555396340916</v>
@@ -13826,7 +13562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.627393456035691</v>
+        <v>1.61550177199256</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.188860535837443</v>
@@ -13915,7 +13651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.613600905559874</v>
+        <v>1.602731761255768</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.266951841546924</v>
@@ -14004,7 +13740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.622490930251118</v>
+        <v>1.615643247476051</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.296576496231591</v>
@@ -14093,7 +13829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609752615949835</v>
+        <v>1.606349485058043</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.136201983350615</v>
@@ -14182,7 +13918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.603140751286785</v>
+        <v>1.608822028351308</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.130313105467127</v>
@@ -14271,7 +14007,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.618051123144282</v>
+        <v>1.622342968955085</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.218039301763984</v>
@@ -14360,7 +14096,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.622231979493259</v>
+        <v>1.628180167214946</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.24982988630874</v>
@@ -14449,7 +14185,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.62513898015957</v>
+        <v>1.62875233422636</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.238943365217402</v>
@@ -14538,7 +14274,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.62087694131791</v>
+        <v>1.627640754759244</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.252909591076176</v>
@@ -14627,7 +14363,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.620912819962209</v>
+        <v>1.624609951574639</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.291440894988804</v>
@@ -14716,7 +14452,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.619525946365086</v>
+        <v>1.628293165755444</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.296916617255435</v>
@@ -14805,7 +14541,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.652469786411017</v>
+        <v>1.658203460779937</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.211247860408708</v>
@@ -14894,7 +14630,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.593465761144983</v>
+        <v>1.608066384282264</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.070489114806771</v>
@@ -14983,7 +14719,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.598049020087962</v>
+        <v>1.613251076873309</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.13227995754423</v>
@@ -15072,7 +14808,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.594927845433951</v>
+        <v>1.609946304589681</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.114112045562912</v>
@@ -15161,7 +14897,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.58841205365267</v>
+        <v>1.603105156199393</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.09522299511852</v>
@@ -15250,7 +14986,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.605556680452232</v>
+        <v>1.613614305197035</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.135101265953704</v>
@@ -15339,7 +15075,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.599596126586097</v>
+        <v>1.607484075123877</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.135486569723523</v>
@@ -15428,7 +15164,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.607037000272745</v>
+        <v>1.613512781354839</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.167494017127248</v>
@@ -15517,7 +15253,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.619102199382999</v>
+        <v>1.62242227650653</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.176690581443219</v>
@@ -15606,7 +15342,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.608236271855325</v>
+        <v>1.615206235465765</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.206067788611123</v>
@@ -15695,7 +15431,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.612289799381756</v>
+        <v>1.614183188856796</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.140122954291776</v>
@@ -15784,7 +15520,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.606572472625931</v>
+        <v>1.610422129759332</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.196988352940745</v>
@@ -15873,7 +15609,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.603444141303528</v>
+        <v>1.60521437376405</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.178778378382245</v>
@@ -15962,7 +15698,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.605121047050728</v>
+        <v>1.606973083246339</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.270342532102112</v>
@@ -16051,7 +15787,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.602802025852814</v>
+        <v>1.600646971023151</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.139985028695137</v>
@@ -16140,7 +15876,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.606413057985044</v>
+        <v>1.608021977442812</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.233638828423228</v>
@@ -16229,7 +15965,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.676983413957011</v>
+        <v>1.66802557525833</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.48780179431611</v>
@@ -16318,7 +16054,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.657769241554688</v>
+        <v>1.647475661799924</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.194855342309574</v>
@@ -16407,7 +16143,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.652941256812171</v>
+        <v>1.644721857173311</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.255469433757241</v>
@@ -16496,7 +16232,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.647687940297426</v>
+        <v>1.63961040734134</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.064050542237938</v>
@@ -16585,7 +16321,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.648037297559062</v>
+        <v>1.64268274884391</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.956203173395172</v>
@@ -16674,7 +16410,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.598462814525357</v>
+        <v>1.600339259219151</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.30159821036712</v>
@@ -16763,7 +16499,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.593668437265892</v>
+        <v>1.596002186414815</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.331211008021929</v>
@@ -16852,7 +16588,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.592850710262128</v>
+        <v>1.600023348525796</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.329632870693197</v>
@@ -16941,7 +16677,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.589797923959708</v>
+        <v>1.590494799053645</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.300689308803813</v>
@@ -17030,7 +16766,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.577532870897186</v>
+        <v>1.579867078820407</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.453044532788438</v>
@@ -17119,7 +16855,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.562387620335602</v>
+        <v>1.571454955495991</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.346939789384147</v>
@@ -17208,7 +16944,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.557282436131856</v>
+        <v>1.57079411888093</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.290661035328446</v>
@@ -17494,7 +17230,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.42691646618137</v>
+        <v>1.418823809065771</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.446008350584374</v>
@@ -17583,7 +17319,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.417088545662255</v>
+        <v>1.407593552105538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.408682091725133</v>
@@ -17672,7 +17408,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.420594469201131</v>
+        <v>1.401669582955272</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.477137500020346</v>
@@ -17761,7 +17497,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.431658026640349</v>
+        <v>1.406982759819535</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.18264372649876</v>
@@ -17850,7 +17586,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.450303010234772</v>
+        <v>1.431506666836308</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.340681738254944</v>
@@ -17939,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.471313327287354</v>
+        <v>1.448030692025526</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.077937333293588</v>
@@ -18028,7 +17764,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.45146906477819</v>
+        <v>1.429515775984588</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.308050418233989</v>
@@ -18117,7 +17853,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.452137908436552</v>
+        <v>1.433811482246456</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.323612378029665</v>
@@ -18206,7 +17942,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.437672004430152</v>
+        <v>1.411645734635683</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.348120666823613</v>
@@ -18295,7 +18031,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.431605023603566</v>
+        <v>1.409565330750852</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.291961237759138</v>
@@ -18384,7 +18120,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.442238818951548</v>
+        <v>1.417869879402487</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.335274861385331</v>
@@ -18473,7 +18209,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.458901693994017</v>
+        <v>1.433754095078793</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.571521790109806</v>
@@ -18562,7 +18298,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.477486964870186</v>
+        <v>1.451621088698684</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.482105187632783</v>
@@ -18651,7 +18387,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.485743910717707</v>
+        <v>1.461056610869633</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.273205858907992</v>
@@ -18740,7 +18476,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496853326037434</v>
+        <v>1.467576167620274</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.529028505441692</v>
@@ -18829,7 +18565,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485721765655968</v>
+        <v>1.454073935824733</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.540915487168192</v>
@@ -18918,7 +18654,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.513730939165532</v>
+        <v>1.47965249579747</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.57660265077994</v>
@@ -19007,7 +18743,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515610847647478</v>
+        <v>1.477764139567855</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.593285597233995</v>
@@ -19096,7 +18832,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.497721007926326</v>
+        <v>1.460479032563951</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.48387518628141</v>
@@ -19185,7 +18921,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.488570726122474</v>
+        <v>1.456807623165554</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.506004990568389</v>
@@ -19274,7 +19010,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492215554349797</v>
+        <v>1.458799296307878</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.123076443919925</v>
@@ -19363,7 +19099,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.460662214701426</v>
+        <v>1.432428227331772</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.483863336289134</v>
@@ -19452,7 +19188,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.440013135149434</v>
+        <v>1.416459972607965</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.414189852983458</v>
@@ -19541,7 +19277,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.441228013950272</v>
+        <v>1.422448047650299</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.281255900286415</v>
@@ -19630,7 +19366,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443022640165412</v>
+        <v>1.421950742578272</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.420457851754096</v>
@@ -19719,7 +19455,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.44547452555824</v>
+        <v>1.426068187051674</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.449712446501961</v>
@@ -19808,7 +19544,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.437043498418604</v>
+        <v>1.415622943694104</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.570045915162857</v>
@@ -19897,7 +19633,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.436104781463454</v>
+        <v>1.416322498247564</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.52783672965561</v>
@@ -19986,7 +19722,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.436176881386343</v>
+        <v>1.415778269381888</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.538672302953473</v>
@@ -20075,7 +19811,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.440128724216924</v>
+        <v>1.422373707776847</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.539691443881765</v>
@@ -20164,7 +19900,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.436330993384989</v>
+        <v>1.420742171381689</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.39125283571181</v>
@@ -20253,7 +19989,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.433702884407921</v>
+        <v>1.422290405553198</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.52166547175608</v>
@@ -20342,7 +20078,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.424210185917368</v>
+        <v>1.414366798382445</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.491483931733768</v>
@@ -20431,7 +20167,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.442506188097901</v>
+        <v>1.433987520470211</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.431416222354783</v>
@@ -20520,7 +20256,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.436278488277078</v>
+        <v>1.42334638189973</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.31579256032228</v>
@@ -20609,7 +20345,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.437181388869332</v>
+        <v>1.429011877577913</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.510490593400952</v>
@@ -20698,7 +20434,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.476905712457877</v>
+        <v>1.464755923059171</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.517145778045701</v>
@@ -20787,7 +20523,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486515537747942</v>
+        <v>1.475013383917111</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.596707238596829</v>
@@ -20876,7 +20612,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.499586508173627</v>
+        <v>1.491710959877375</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.568015242585655</v>
@@ -20965,7 +20701,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.500583342077631</v>
+        <v>1.489495314289631</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.737748076858738</v>
@@ -21054,7 +20790,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.499394632669778</v>
+        <v>1.493043532180325</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.509724769162425</v>
@@ -21143,7 +20879,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.513475800048184</v>
+        <v>1.507667494043492</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.71051821924411</v>
@@ -21232,7 +20968,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.514747143371584</v>
+        <v>1.507971653968604</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.462589587667065</v>
@@ -21321,7 +21057,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.513912457799354</v>
+        <v>1.51412560788729</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.695406609494875</v>
@@ -21410,7 +21146,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.497474798404807</v>
+        <v>1.494894594566107</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.676259415711062</v>
@@ -21499,7 +21235,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.518039320234789</v>
+        <v>1.515856639421715</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.550365131053753</v>
@@ -21588,7 +21324,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.512740695784292</v>
+        <v>1.5092362342039</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.791307062752806</v>
@@ -21677,7 +21413,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.551164889525238</v>
+        <v>1.541917983834143</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.274313082573216</v>
@@ -21766,7 +21502,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.557859104384924</v>
+        <v>1.546761237512275</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.568645865433403</v>
@@ -21855,7 +21591,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.574529302505315</v>
+        <v>1.563002414567313</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.486647369389907</v>
@@ -21944,7 +21680,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.591702659081287</v>
+        <v>1.577971092018788</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.533623610814243</v>
@@ -22033,7 +21769,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.589589232612278</v>
+        <v>1.57878167199184</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.339233315876523</v>
@@ -22122,7 +21858,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.576519633935519</v>
+        <v>1.567732455240985</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.392797904485018</v>
@@ -22211,7 +21947,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.579869659324724</v>
+        <v>1.571907541598853</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.433091070056622</v>
@@ -22300,7 +22036,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.590899389953344</v>
+        <v>1.586291197369776</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.387192010732687</v>
@@ -22389,7 +22125,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.595417672918015</v>
+        <v>1.58533407257477</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.278008957358689</v>
@@ -22478,7 +22214,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.569750268108975</v>
+        <v>1.569204125648995</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.418776221684067</v>
@@ -22567,7 +22303,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.556120932692784</v>
+        <v>1.55418510349673</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.432372874299919</v>
@@ -22656,7 +22392,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.525539472468576</v>
+        <v>1.524827373479034</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.468861839492209</v>
@@ -22745,7 +22481,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.546317914533232</v>
+        <v>1.545779573501216</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.724446164528342</v>
@@ -22834,7 +22570,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.503349626418279</v>
+        <v>1.508425742153459</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.424903742691883</v>
@@ -22923,7 +22659,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.495415461288254</v>
+        <v>1.502797269537225</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.56791797183634</v>
@@ -23012,7 +22748,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.475464783072767</v>
+        <v>1.487415752508389</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.492286186621426</v>
@@ -23101,7 +22837,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.45291275112321</v>
+        <v>1.461136769326751</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.476670505181073</v>
@@ -23190,7 +22926,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.457556103708374</v>
+        <v>1.462828479074085</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.561386083814435</v>
@@ -23279,7 +23015,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.45417978353509</v>
+        <v>1.456654247656306</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.63331701255804</v>
@@ -23368,7 +23104,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.452461168972964</v>
+        <v>1.454117844858253</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.467892034208951</v>
@@ -23457,7 +23193,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.467856805077409</v>
+        <v>1.464015308307968</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.465081642951787</v>
@@ -23546,7 +23282,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.461688885516448</v>
+        <v>1.466251389199043</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.641830329256993</v>
@@ -23635,7 +23371,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.454669054568989</v>
+        <v>1.455209970885849</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.530423626034525</v>
@@ -23724,7 +23460,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.445096394534613</v>
+        <v>1.45004284255528</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.702834639576642</v>
@@ -23813,7 +23549,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.459992839851624</v>
+        <v>1.464022247541852</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.605992842190894</v>
@@ -23902,7 +23638,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.469506327919062</v>
+        <v>1.472338602145966</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.559437146877449</v>
@@ -23991,7 +23727,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.489490588468323</v>
+        <v>1.491367744251516</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.552984719762353</v>
@@ -24080,7 +23816,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.493285222870628</v>
+        <v>1.494649263948999</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.578923088317385</v>
@@ -24169,7 +23905,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.524747204342943</v>
+        <v>1.523819676414483</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.671634113620584</v>
@@ -24258,7 +23994,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.527919851721423</v>
+        <v>1.522177297092607</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.764395465860037</v>
@@ -24347,7 +24083,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.532239877067351</v>
+        <v>1.528815127205174</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.692002528722554</v>
@@ -24436,7 +24172,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.544813774809885</v>
+        <v>1.544838105424919</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.531820460946851</v>
@@ -24525,7 +24261,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.553762377903378</v>
+        <v>1.553498114676445</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.642758269846319</v>
@@ -24614,7 +24350,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.535202269146489</v>
+        <v>1.545964355855947</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.933460373528126</v>
@@ -24703,7 +24439,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.54188544047584</v>
+        <v>1.553625009173334</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.835874352921949</v>
@@ -24792,7 +24528,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.566969000798863</v>
+        <v>1.576965403135408</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.849879098754778</v>
@@ -24881,7 +24617,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.558214151201737</v>
+        <v>1.563339568650397</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.921850528223381</v>
@@ -24970,7 +24706,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.569207131009023</v>
+        <v>1.572731463764346</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.713290789820161</v>
@@ -25059,7 +24795,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.560918308330155</v>
+        <v>1.568803807854499</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.89930528070655</v>
@@ -25148,7 +24884,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.55792989586846</v>
+        <v>1.563846356186279</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.864450372147014</v>
@@ -25434,7 +25170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.515786295638399</v>
+        <v>1.502997065712274</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.927054568765998</v>
@@ -25523,7 +25259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.495573858751273</v>
+        <v>1.484261643488257</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.447633007573794</v>
@@ -25612,7 +25348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.474279869892078</v>
+        <v>1.462948227168423</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.574316676965281</v>
@@ -25701,7 +25437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.485884698211726</v>
+        <v>1.472801253608818</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.443296137610396</v>
@@ -25790,7 +25526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.479097257958529</v>
+        <v>1.464375464496262</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.443049152379916</v>
@@ -25879,7 +25615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.483496653011084</v>
+        <v>1.470239099413306</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.303739278740129</v>
@@ -25968,7 +25704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.473743563367305</v>
+        <v>1.463652269596319</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.422077353347691</v>
@@ -26057,7 +25793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.485856450361239</v>
+        <v>1.478865236123652</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.525221986749902</v>
@@ -26146,7 +25882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.469410802752049</v>
+        <v>1.468156928578274</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.235570371874884</v>
@@ -26235,7 +25971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.469963999373119</v>
+        <v>1.471118382885674</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.457443779342828</v>
@@ -26324,7 +26060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.472732121628575</v>
+        <v>1.474933340117736</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.479560245969108</v>
@@ -26413,7 +26149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.472490855928778</v>
+        <v>1.47903073127831</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.43574423567669</v>
@@ -26502,7 +26238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.469924312412721</v>
+        <v>1.477837809917288</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.478274617420982</v>
@@ -26591,7 +26327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.47371879457767</v>
+        <v>1.484901059678702</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.389933247091196</v>
@@ -26680,7 +26416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.477321696794476</v>
+        <v>1.486656532553038</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.546706214382466</v>
@@ -26769,7 +26505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484457786091901</v>
+        <v>1.489212961441756</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.467515487085496</v>
@@ -26858,7 +26594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.513393277189719</v>
+        <v>1.521791545963075</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.298149759150841</v>
@@ -26947,7 +26683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.511262795261434</v>
+        <v>1.517927333058992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.007188299964986</v>
@@ -27036,7 +26772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.488061853061371</v>
+        <v>1.496212089736218</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.742980836451945</v>
@@ -27125,7 +26861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.481540237226331</v>
+        <v>1.496506924588254</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.836743021484933</v>
@@ -27214,7 +26950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.479151067444644</v>
+        <v>1.492447236807828</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.831847371489258</v>
@@ -27303,7 +27039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.493412745338299</v>
+        <v>1.5054613967001</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.919877489024793</v>
@@ -27392,7 +27128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.493115622636235</v>
+        <v>1.501791492207846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.943524970976902</v>
@@ -27481,7 +27217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.504551409648777</v>
+        <v>1.509642267195415</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.590571117690092</v>
@@ -27570,7 +27306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.497562284033346</v>
+        <v>1.50253515471423</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.827270151003332</v>
@@ -27659,7 +27395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.499936199355034</v>
+        <v>1.507174683956774</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.885387824964824</v>
@@ -27748,7 +27484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.511876294057303</v>
+        <v>1.515219110606948</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.68319773946884</v>
@@ -27837,7 +27573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.490669866769885</v>
+        <v>1.499749531021959</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.555298999585659</v>
@@ -27926,7 +27662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.488695090197556</v>
+        <v>1.498198492266167</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.528431347542199</v>
@@ -28015,7 +27751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485732203563331</v>
+        <v>1.498135866803622</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.619631368933002</v>
@@ -28104,7 +27840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.496222373395876</v>
+        <v>1.505093085725606</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.587025419205973</v>
@@ -28193,7 +27929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.501775154654073</v>
+        <v>1.51166952792016</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.564499417669285</v>
@@ -28282,7 +28018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.473397692446105</v>
+        <v>1.480694265138667</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.617027317713725</v>
@@ -28371,7 +28107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.50434515601185</v>
+        <v>1.509701138824568</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.50926692751219</v>
@@ -28460,7 +28196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.509179891012599</v>
+        <v>1.515085064857536</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.510903394628514</v>
@@ -28549,7 +28285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.482510007166374</v>
+        <v>1.49335000692631</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.570634467677702</v>
@@ -28638,7 +28374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.495731749242508</v>
+        <v>1.505079397576935</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.648283096972468</v>
@@ -28727,7 +28463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.49664891986625</v>
+        <v>1.511809720016789</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.678432121585841</v>
@@ -28816,7 +28552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.500776085872997</v>
+        <v>1.511680223484721</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.551936962846898</v>
@@ -28905,7 +28641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.501585515726935</v>
+        <v>1.51760849918781</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.637746646126216</v>
@@ -28994,7 +28730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494331642071061</v>
+        <v>1.51298537072304</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.65186248115853</v>
@@ -29083,7 +28819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499276610386028</v>
+        <v>1.518646522896711</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.297939358153675</v>
@@ -29172,7 +28908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.505421328789748</v>
+        <v>1.522216550053422</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.701395520763549</v>
@@ -29261,7 +28997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.51245896573626</v>
+        <v>1.530464571615817</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.678141297447995</v>
@@ -29350,7 +29086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.518260997161103</v>
+        <v>1.535286133116349</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.526878572807087</v>
@@ -29439,7 +29175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.525923156841667</v>
+        <v>1.54227184468594</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.341655313389078</v>
@@ -29528,7 +29264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.518028962191906</v>
+        <v>1.537513125457666</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.602469931580045</v>
@@ -29617,7 +29353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.556431667786068</v>
+        <v>1.578423227376715</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.727162326262179</v>
@@ -29706,7 +29442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.545976702505409</v>
+        <v>1.570819866989645</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.671889686957486</v>
@@ -29795,7 +29531,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.536513951667702</v>
+        <v>1.557431789253465</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.483255142850118</v>
@@ -29884,7 +29620,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.561708473851488</v>
+        <v>1.580319291192291</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.907127206896044</v>
@@ -29973,7 +29709,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.543503690150859</v>
+        <v>1.557063633714583</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.781843894340849</v>
@@ -30062,7 +29798,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.533000324368916</v>
+        <v>1.551977203406026</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.583486294408049</v>
@@ -30151,7 +29887,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.551259857213598</v>
+        <v>1.570823698720531</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.571911857197468</v>
@@ -30240,7 +29976,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.537940961363739</v>
+        <v>1.556248508108174</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.925204123548347</v>
@@ -30329,7 +30065,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.541745741937343</v>
+        <v>1.556478002051638</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.877210912428088</v>
@@ -30418,7 +30154,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.551064379195064</v>
+        <v>1.562345716563365</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.708485849018153</v>
@@ -30507,7 +30243,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.547482541364067</v>
+        <v>1.559421447289752</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.688078000796309</v>
@@ -30596,7 +30332,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542454359058776</v>
+        <v>1.554574115340738</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.799487105343657</v>
@@ -30685,7 +30421,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.546452573031952</v>
+        <v>1.556376655021978</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.73882923858457</v>
@@ -30774,7 +30510,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.536040624590305</v>
+        <v>1.549589697379559</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.851657951093499</v>
@@ -30863,7 +30599,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.533799082204854</v>
+        <v>1.547938524878493</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.949081942664112</v>
@@ -30952,7 +30688,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.521262789488163</v>
+        <v>1.538531209807623</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.829881750252591</v>
@@ -31041,7 +30777,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.524721976078776</v>
+        <v>1.540910627001423</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.866185120728853</v>
@@ -31130,7 +30866,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.543569651308469</v>
+        <v>1.555978902066969</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.863789307562385</v>
@@ -31219,7 +30955,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.547611904229104</v>
+        <v>1.563270113663833</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.050371675142946</v>
@@ -31308,7 +31044,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.568263041448325</v>
+        <v>1.57798868749631</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.767692406044365</v>
@@ -31397,7 +31133,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.563269973470842</v>
+        <v>1.576314830127004</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.032301346148009</v>
@@ -31486,7 +31222,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.565490033358389</v>
+        <v>1.580577606237906</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.748392475365709</v>
@@ -31575,7 +31311,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.58487944720166</v>
+        <v>1.594180575043545</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.026315907531927</v>
@@ -31664,7 +31400,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.556548950423608</v>
+        <v>1.576619709796783</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.638232620059476</v>
@@ -31753,7 +31489,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.549222342566689</v>
+        <v>1.572447706904639</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.876249803190092</v>
@@ -31842,7 +31578,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.560560698657832</v>
+        <v>1.579964471697243</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.850538027724776</v>
@@ -31931,7 +31667,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.566945061394827</v>
+        <v>1.586952772588341</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.850774580711278</v>
@@ -32020,7 +31756,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.573248032685244</v>
+        <v>1.594914883327609</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.947706219766584</v>
@@ -32109,7 +31845,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.595500855223665</v>
+        <v>1.609516885250038</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.830940398953416</v>
@@ -32198,7 +31934,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.562021102271459</v>
+        <v>1.578194443234312</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.652215291018382</v>
@@ -32287,7 +32023,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.573707341435382</v>
+        <v>1.588619499019073</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.655172983989431</v>
@@ -32376,7 +32112,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.57535820832972</v>
+        <v>1.589308646780959</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.640394717493523</v>
@@ -32465,7 +32201,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.579999703019189</v>
+        <v>1.594667072036968</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.445149492249083</v>
@@ -32554,7 +32290,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.566905951766675</v>
+        <v>1.579217032183362</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.733551486688756</v>
@@ -32643,7 +32379,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.559399859604588</v>
+        <v>1.573320789511167</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.678246258952105</v>
@@ -32732,7 +32468,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.546720673409791</v>
+        <v>1.560805450401255</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.72788068178307</v>
@@ -32821,7 +32557,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.521842716004991</v>
+        <v>1.53064480931469</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.705325302323725</v>
@@ -32910,7 +32646,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.51104927303368</v>
+        <v>1.520990628928038</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.599032258036718</v>
@@ -32999,7 +32735,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.504907066476445</v>
+        <v>1.514137424810865</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.692118337541565</v>
@@ -33088,7 +32824,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.506285757878014</v>
+        <v>1.516688732700531</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.767217854968321</v>
@@ -33374,7 +33110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.309088454836425</v>
+        <v>1.308809967305826</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.650237518963018</v>
@@ -33463,7 +33199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.335626773911985</v>
+        <v>1.33398908574453</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.616370702024431</v>
@@ -33552,7 +33288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.327849954390283</v>
+        <v>1.323537557584493</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.620307124045823</v>
@@ -33641,7 +33377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.327332433246201</v>
+        <v>1.32268864906457</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.611337641658127</v>
@@ -33730,7 +33466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.310572554132077</v>
+        <v>1.311049960836628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.628402064798459</v>
@@ -33819,7 +33555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.314839270313144</v>
+        <v>1.314241216749881</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.610368167234115</v>
@@ -33908,7 +33644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.314268976402613</v>
+        <v>1.31284163337226</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.633047940459023</v>
@@ -33997,7 +33733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.334573988975887</v>
+        <v>1.339216180949408</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.621916586325781</v>
@@ -34086,7 +33822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.331482945218612</v>
+        <v>1.335670681396472</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.604542660836907</v>
@@ -34175,7 +33911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.299909257678745</v>
+        <v>1.305742631944432</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.626651900625377</v>
@@ -34264,7 +34000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.291592307175509</v>
+        <v>1.298483085945134</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.6316654776193</v>
@@ -34353,7 +34089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.296184006367458</v>
+        <v>1.301535284987141</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.633227795837252</v>
@@ -34442,7 +34178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.302252891501135</v>
+        <v>1.30921879671501</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.645031698582211</v>
@@ -34531,7 +34267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.330148433039027</v>
+        <v>1.342377911569715</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.536064880090239</v>
@@ -34620,7 +34356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.364763637738927</v>
+        <v>1.384646473103357</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.870376695090516</v>
@@ -34709,7 +34445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.336063600522504</v>
+        <v>1.351844469021791</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.8965476998861</v>
@@ -34798,7 +34534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.335873204838618</v>
+        <v>1.352428436272187</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.882206844954795</v>
@@ -34887,7 +34623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.327635796915293</v>
+        <v>1.341240114504471</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.905391042114485</v>
@@ -34976,7 +34712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.243719481066361</v>
+        <v>1.251649670642148</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.596189026777908</v>
@@ -35065,7 +34801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.246975801514355</v>
+        <v>1.254702493249684</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.623124115467395</v>
@@ -35154,7 +34890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.241426728137691</v>
+        <v>1.247884884022577</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.612489089086742</v>
@@ -35243,7 +34979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.243116613335167</v>
+        <v>1.246517318604617</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.633577532001696</v>
@@ -35332,7 +35068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.24211705460892</v>
+        <v>1.244893553597019</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.61105549822072</v>
@@ -35421,7 +35157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.233586036412059</v>
+        <v>1.235515143205028</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.576435733868773</v>
@@ -35510,7 +35246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.249695006858557</v>
+        <v>1.251835294074416</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.599498380772494</v>
@@ -35599,7 +35335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.263828627754369</v>
+        <v>1.266754201706461</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.594589003509864</v>
@@ -35688,7 +35424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.268175418479936</v>
+        <v>1.269737947783583</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.609067513270806</v>
@@ -35777,7 +35513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.250502885976785</v>
+        <v>1.246434086943703</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.632636062360248</v>
@@ -35866,7 +35602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.262606854257243</v>
+        <v>1.257685657654075</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.616488904865355</v>
@@ -35955,7 +35691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.268757542317145</v>
+        <v>1.265941987684572</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.616478321956733</v>
@@ -36044,7 +35780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.252638032174272</v>
+        <v>1.248536041465252</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.61622509627588</v>
@@ -36133,7 +35869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.242337925132131</v>
+        <v>1.239330954344777</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.626165556508635</v>
@@ -36222,7 +35958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.245560738535304</v>
+        <v>1.24251097949173</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.648434406636156</v>
@@ -36311,7 +36047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.333636389931373</v>
+        <v>1.333546098986244</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.920972318035715</v>
@@ -36400,7 +36136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.344852280412349</v>
+        <v>1.344973811380593</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.902652798837311</v>
@@ -36489,7 +36225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.349698571482469</v>
+        <v>1.351855758200776</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.955713176617802</v>
@@ -36578,7 +36314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.354456185640533</v>
+        <v>1.352611093387002</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.913568371884363</v>
@@ -36667,7 +36403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.326457478542377</v>
+        <v>1.323855619563265</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.921558469263381</v>
@@ -36756,7 +36492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.292451326170307</v>
+        <v>1.287417811954957</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.761138647924986</v>
@@ -36845,7 +36581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.281261272476953</v>
+        <v>1.278066799554017</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.72685614074039</v>
@@ -36934,7 +36670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.246796881781874</v>
+        <v>1.243321036650485</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.783508347746123</v>
@@ -37023,7 +36759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.247733309981161</v>
+        <v>1.247025992649849</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.734734560627051</v>
@@ -37112,7 +36848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.265602174598703</v>
+        <v>1.268795085236362</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.731285624224331</v>
@@ -37201,7 +36937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.259132108035799</v>
+        <v>1.265262794255972</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.743010486229612</v>
@@ -37290,7 +37026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.271633416021425</v>
+        <v>1.280658876799505</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.590647826610277</v>
@@ -37379,7 +37115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.278121379943129</v>
+        <v>1.285848363282417</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.721591985621152</v>
@@ -37468,7 +37204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.286595376827812</v>
+        <v>1.298163708729409</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.71035426969663</v>
@@ -37557,7 +37293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.281043613634038</v>
+        <v>1.293247174054493</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.741283902972085</v>
@@ -37646,7 +37382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.278280121656401</v>
+        <v>1.289910332839716</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.719766885957722</v>
@@ -37735,7 +37471,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.230565268962427</v>
+        <v>1.236598677696974</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.740851671447172</v>
@@ -37824,7 +37560,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.217024597002115</v>
+        <v>1.225150311458215</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.739118330318044</v>
@@ -37913,7 +37649,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.205124744380598</v>
+        <v>1.217302654722453</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.758494893182589</v>
@@ -38002,7 +37738,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.218713652890177</v>
+        <v>1.235464266262451</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.729325710449999</v>
@@ -38091,7 +37827,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.265058206569045</v>
+        <v>1.288691637092015</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.657191633213817</v>
@@ -38180,7 +37916,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.277185403022564</v>
+        <v>1.300263888588316</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.68830689365139</v>
@@ -38269,7 +38005,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.311457348033061</v>
+        <v>1.33820515090951</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.654575506269296</v>
@@ -38358,7 +38094,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.308780747930155</v>
+        <v>1.337375946126912</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.672507047559803</v>
@@ -38447,7 +38183,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.306954272017973</v>
+        <v>1.335430410913893</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.660450258266418</v>
@@ -38536,7 +38272,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.299861975616712</v>
+        <v>1.32217192571314</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.637766800218795</v>
@@ -38625,7 +38361,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.311311742640539</v>
+        <v>1.330599719190886</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.661428809593238</v>
@@ -38714,7 +38450,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.289502396409226</v>
+        <v>1.295315644073868</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.736135048762485</v>
@@ -38803,7 +38539,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.280992643039555</v>
+        <v>1.294104305210765</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.733980521685508</v>
@@ -38892,7 +38628,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.27676566270234</v>
+        <v>1.289114373142318</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.707822193643721</v>
@@ -38981,7 +38717,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.27464164516842</v>
+        <v>1.284152075889833</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.692887844163291</v>
@@ -39070,7 +38806,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.325810656864069</v>
+        <v>1.339312851171713</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.797931237957611</v>
@@ -39159,7 +38895,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.353346407625288</v>
+        <v>1.363565378955545</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.787501156963009</v>
@@ -39248,7 +38984,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.389287486738791</v>
+        <v>1.397023359690493</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.762099862583317</v>
@@ -39337,7 +39073,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.392592056038704</v>
+        <v>1.398345090573847</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.786920945319335</v>
@@ -39426,7 +39162,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.382171859660279</v>
+        <v>1.388973209002462</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.78628085063924</v>
@@ -39515,7 +39251,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.394050163196026</v>
+        <v>1.375820047039815</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.826162899688825</v>
@@ -39604,7 +39340,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.32797905334549</v>
+        <v>1.330537967070579</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.835968778740205</v>
@@ -39693,7 +39429,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.326167850247694</v>
+        <v>1.327313390695228</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.820858085201753</v>
@@ -39782,7 +39518,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.327091895979838</v>
+        <v>1.327965173051646</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.828964821940082</v>
@@ -39871,7 +39607,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.343720408181866</v>
+        <v>1.344089217989723</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.829659421774893</v>
@@ -39960,7 +39696,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.316828670627715</v>
+        <v>1.317181198146649</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.808850417151442</v>
@@ -40049,7 +39785,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.360009545096123</v>
+        <v>1.362416103173932</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.768570347233487</v>
@@ -40138,7 +39874,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.294494227663363</v>
+        <v>1.292463369132034</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.668713358232887</v>
@@ -40227,7 +39963,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.282628310557699</v>
+        <v>1.284859009564864</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.678476494680232</v>
@@ -40316,7 +40052,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.285960430504162</v>
+        <v>1.28898335159729</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.676173000158233</v>
@@ -40405,7 +40141,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.286723614827053</v>
+        <v>1.291740596453296</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.680761092516808</v>
@@ -40494,7 +40230,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.28030581190375</v>
+        <v>1.286351093802896</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.673520603013796</v>
@@ -40583,7 +40319,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.29722176756478</v>
+        <v>1.29869257730964</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.703787629619464</v>
@@ -40672,7 +40408,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.304314750828827</v>
+        <v>1.307190178774646</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.694225368215739</v>
@@ -40761,7 +40497,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.304032548040412</v>
+        <v>1.306080919683952</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.722996104113088</v>
@@ -40850,7 +40586,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.325045201428528</v>
+        <v>1.327824029386648</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.735179187794522</v>
@@ -40939,7 +40675,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.343568649325816</v>
+        <v>1.349608661024306</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.708416345277215</v>
@@ -41028,7 +40764,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.339423934687789</v>
+        <v>1.345753727056978</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.718106508361325</v>
@@ -41314,7 +41050,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.513840607141371</v>
+        <v>1.512702534615294</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.554134914464847</v>
@@ -41403,7 +41139,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.505306469727586</v>
+        <v>1.502730574321327</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.589099322805018</v>
@@ -41492,7 +41228,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.485657651875983</v>
+        <v>1.476721153672262</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.488284877886871</v>
@@ -41581,7 +41317,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.488758232302914</v>
+        <v>1.480926587008533</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.304774211048471</v>
@@ -41670,7 +41406,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.518155127729858</v>
+        <v>1.50689745044823</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.510484171531718</v>
@@ -41759,7 +41495,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536890180675696</v>
+        <v>1.520030268904883</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.175557611453521</v>
@@ -41848,7 +41584,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.522818368760113</v>
+        <v>1.510017901023184</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.712914204539288</v>
@@ -41937,7 +41673,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.530418158989702</v>
+        <v>1.516988500302781</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.642861845710629</v>
@@ -42026,7 +41762,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.527983780640417</v>
+        <v>1.515602612991609</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.700363633049487</v>
@@ -42115,7 +41851,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.531435010929467</v>
+        <v>1.516385942890657</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.709369675322718</v>
@@ -42204,7 +41940,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.528316122318438</v>
+        <v>1.514280220462586</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.640298681440509</v>
@@ -42293,7 +42029,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.52219475236148</v>
+        <v>1.510322111620237</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.607410569248354</v>
@@ -42382,7 +42118,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.545812171330194</v>
+        <v>1.535164956826578</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.704600097618905</v>
@@ -42471,7 +42207,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.54826966929385</v>
+        <v>1.541241641935287</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.389481677858329</v>
@@ -42560,7 +42296,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.56173430854044</v>
+        <v>1.550301805607008</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.575583528539629</v>
@@ -42649,7 +42385,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542443226717024</v>
+        <v>1.533803220909472</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.682500631986353</v>
@@ -42738,7 +42474,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545209756826763</v>
+        <v>1.5340948419824</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.806374749373565</v>
@@ -42827,7 +42563,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.547423872677322</v>
+        <v>1.532900197268284</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.813352841996031</v>
@@ -42916,7 +42652,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.533857405755504</v>
+        <v>1.517853380571385</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.653715965067614</v>
@@ -43005,7 +42741,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.543279672688413</v>
+        <v>1.531081556557349</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.771685998976039</v>
@@ -43094,7 +42830,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.541313667098815</v>
+        <v>1.530211748232316</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.435567158525485</v>
@@ -43183,7 +42919,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.516535425186372</v>
+        <v>1.509643747210674</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.687191854655426</v>
@@ -43272,7 +43008,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.48892276171201</v>
+        <v>1.483948993925776</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.639156301181924</v>
@@ -43361,7 +43097,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.48604926965857</v>
+        <v>1.479000414533223</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.668059891574177</v>
@@ -43450,7 +43186,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.482446117760892</v>
+        <v>1.474503388305159</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.769148421368862</v>
@@ -43539,7 +43275,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.482227749173972</v>
+        <v>1.471609582358278</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.507615273915236</v>
@@ -43628,7 +43364,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.477335528527696</v>
+        <v>1.466000662056841</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.816125696722262</v>
@@ -43717,7 +43453,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.482639816282074</v>
+        <v>1.468534976425218</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.571194692156217</v>
@@ -43806,7 +43542,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.481448199537028</v>
+        <v>1.46688593111006</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.736884297983097</v>
@@ -43895,7 +43631,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485312224868474</v>
+        <v>1.464174311785817</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.567915926631521</v>
@@ -43984,7 +43720,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.486998968030216</v>
+        <v>1.467084536970323</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.797007619295247</v>
@@ -44073,7 +43809,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.490020524441118</v>
+        <v>1.474053210293859</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.69992114915479</v>
@@ -44162,7 +43898,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472671330906409</v>
+        <v>1.456797704614281</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.740425232345644</v>
@@ -44251,7 +43987,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.489575165366044</v>
+        <v>1.472074910753135</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.494897471089293</v>
@@ -44340,7 +44076,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492022185538053</v>
+        <v>1.473784274621395</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.386327811665871</v>
@@ -44429,7 +44165,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.508154933156891</v>
+        <v>1.485587336370429</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.639147191260545</v>
@@ -44518,7 +44254,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.541693493422468</v>
+        <v>1.514879001843074</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.830137469581688</v>
@@ -44607,7 +44343,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556399217492619</v>
+        <v>1.529187434644708</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.513913572951156</v>
@@ -44696,7 +44432,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55769471904761</v>
+        <v>1.538647777776544</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.879186240737382</v>
@@ -44785,7 +44521,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.561983929034833</v>
+        <v>1.545347645022305</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.800137284226627</v>
@@ -44874,7 +44610,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.570857637799699</v>
+        <v>1.555741748887872</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.634466143766701</v>
@@ -44963,7 +44699,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581007671148731</v>
+        <v>1.567052477466252</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.926795457108172</v>
@@ -45052,7 +44788,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570440272254321</v>
+        <v>1.561385601913671</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.743919102054856</v>
@@ -45141,7 +44877,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.573456606897109</v>
+        <v>1.565129980327377</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.678061678523579</v>
@@ -45230,7 +44966,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.576447830261007</v>
+        <v>1.568843186475839</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.812645582962521</v>
@@ -45319,7 +45055,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.582416512870112</v>
+        <v>1.574651068539749</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.911840182365431</v>
@@ -45408,7 +45144,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.588868607827591</v>
+        <v>1.584477504890778</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.697131063329847</v>
@@ -45497,7 +45233,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.621036686207215</v>
+        <v>1.614525812507215</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.940266995209173</v>
@@ -45586,7 +45322,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.621404903661867</v>
+        <v>1.611770631498479</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.891792664821894</v>
@@ -45675,7 +45411,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.624021229123632</v>
+        <v>1.611480307229958</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.027657241091347</v>
@@ -45764,7 +45500,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.631061995359278</v>
+        <v>1.622958836739474</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.803872342759626</v>
@@ -45853,7 +45589,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.63502401281116</v>
+        <v>1.633803478021993</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.955352888899141</v>
@@ -45942,7 +45678,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.619822417859579</v>
+        <v>1.620814773834286</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.198013965894691</v>
@@ -46031,7 +45767,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.62740601654959</v>
+        <v>1.62377418357948</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.041714221241833</v>
@@ -46120,7 +45856,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.626337351707087</v>
+        <v>1.620166850036559</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.027896738509772</v>
@@ -46209,7 +45945,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.622812148178677</v>
+        <v>1.613048051465278</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.884024222496626</v>
@@ -46298,7 +46034,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.605796026872915</v>
+        <v>1.599178998019195</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.622086787885785</v>
@@ -46387,7 +46123,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.593657491071516</v>
+        <v>1.589213817653639</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.975124585811592</v>
@@ -46476,7 +46212,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.570062028113375</v>
+        <v>1.564827644672347</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.509882408682014</v>
@@ -46565,7 +46301,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.568525892983064</v>
+        <v>1.564556924685967</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.594961322550565</v>
@@ -46654,7 +46390,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.558904004176615</v>
+        <v>1.553454420791697</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.544932654115445</v>
@@ -46743,7 +46479,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.544563396250106</v>
+        <v>1.539545299138334</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.71347330751178</v>
@@ -46832,7 +46568,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.529815938047101</v>
+        <v>1.527043909965659</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.640885914758284</v>
@@ -46921,7 +46657,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.522392455535378</v>
+        <v>1.521710874283805</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.771692458507991</v>
@@ -47010,7 +46746,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.512561430712658</v>
+        <v>1.508767575487264</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.666942192977259</v>
@@ -47099,7 +46835,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.505553615413998</v>
+        <v>1.507906668663836</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.759543409077712</v>
@@ -47188,7 +46924,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.496403076020947</v>
+        <v>1.495732996926783</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.667061369774673</v>
@@ -47277,7 +47013,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.506504832510158</v>
+        <v>1.50244259858357</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.610534468728644</v>
@@ -47366,7 +47102,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.500295921344005</v>
+        <v>1.504788255705387</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.648839993588336</v>
@@ -47455,7 +47191,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.486652125485782</v>
+        <v>1.490923152456301</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.818501758355325</v>
@@ -47544,7 +47280,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.483589772665285</v>
+        <v>1.490669801429879</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.506510901394352</v>
@@ -47633,7 +47369,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.489663309918456</v>
+        <v>1.500914704665944</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.689600092437576</v>
@@ -47722,7 +47458,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.500290794355424</v>
+        <v>1.509570572288298</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.462463637080726</v>
@@ -47811,7 +47547,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.509479645113529</v>
+        <v>1.522232316580477</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.778295711267757</v>
@@ -47900,7 +47636,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.496049384043323</v>
+        <v>1.509707978740297</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.74112673367159</v>
@@ -47989,7 +47725,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.505618357971707</v>
+        <v>1.519234071893478</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.720715592650378</v>
@@ -48078,7 +47814,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.508305383999604</v>
+        <v>1.515124065230656</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.530806585721295</v>
@@ -48167,7 +47903,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.506074899528721</v>
+        <v>1.513461207490438</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.669990168969786</v>
@@ -48256,7 +47992,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.505758716882818</v>
+        <v>1.511220776293231</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.430074405611546</v>
@@ -48345,7 +48081,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.522128115343715</v>
+        <v>1.521103958547266</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.444531686914801</v>
@@ -48434,7 +48170,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.519084787007003</v>
+        <v>1.521535358791997</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.715824160916136</v>
@@ -48523,7 +48259,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.550985258249694</v>
+        <v>1.54735538878043</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.762044007890551</v>
@@ -48612,7 +48348,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.569996960069192</v>
+        <v>1.568492662761362</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.593162490157113</v>
@@ -48701,7 +48437,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.572972444977892</v>
+        <v>1.571638345631047</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.839604378775677</v>
@@ -48790,7 +48526,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.581268889329774</v>
+        <v>1.58489522936944</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.800341833006658</v>
@@ -48879,7 +48615,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.585720720842808</v>
+        <v>1.58723429774892</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.81264797713254</v>
@@ -48968,7 +48704,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.574482324521415</v>
+        <v>1.574791890037129</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.836213673679616</v>
@@ -49254,7 +48990,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.371358710183775</v>
+        <v>1.374650842534435</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.089638485503104</v>
@@ -49343,7 +49079,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.369182236610959</v>
+        <v>1.373216495401089</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.120501969597453</v>
@@ -49432,7 +49168,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380430175778591</v>
+        <v>1.380083602743015</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.093989061647184</v>
@@ -49521,7 +49257,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.39429456025209</v>
+        <v>1.385972663662943</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.154662985450424</v>
@@ -49610,7 +49346,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.418468090981237</v>
+        <v>1.419772960816064</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.947447468981282</v>
@@ -49699,7 +49435,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.432151918029444</v>
+        <v>1.430351840134356</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.241941073423275</v>
@@ -49788,7 +49524,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.42433383518104</v>
+        <v>1.42708034914793</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.062006518715875</v>
@@ -49877,7 +49613,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.420671126184835</v>
+        <v>1.419926895304162</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.084667516410096</v>
@@ -49966,7 +49702,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.403067654061803</v>
+        <v>1.395211563465509</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.041027582919125</v>
@@ -50055,7 +49791,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.388764068268163</v>
+        <v>1.38716485297062</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.03925583761556</v>
@@ -50144,7 +49880,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.411574752335279</v>
+        <v>1.410218711275375</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.123690454914989</v>
@@ -50233,7 +49969,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.458951121045346</v>
+        <v>1.453270250649181</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.044367003930511</v>
@@ -50322,7 +50058,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463772095922174</v>
+        <v>1.457355276692543</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.088913634771592</v>
@@ -50411,7 +50147,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.465665164322954</v>
+        <v>1.458990473879776</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.121060469884442</v>
@@ -50500,7 +50236,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.464428817728914</v>
+        <v>1.456241524706063</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.001725087732347</v>
@@ -50589,7 +50325,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.459077920107441</v>
+        <v>1.450582092479376</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.001059831465405</v>
@@ -50678,7 +50414,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.506733697302317</v>
+        <v>1.491328251412528</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.067824597402665</v>
@@ -50767,7 +50503,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.522224551379435</v>
+        <v>1.507883954723689</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.982264909503094</v>
@@ -50856,7 +50592,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.521390581031901</v>
+        <v>1.489484636216494</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.150934974955433</v>
@@ -50945,7 +50681,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.466460818945915</v>
+        <v>1.450182075186097</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.054317236464552</v>
@@ -51034,7 +50770,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.466960972867957</v>
+        <v>1.451800725745794</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.194556536583009</v>
@@ -51123,7 +50859,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.45687889612303</v>
+        <v>1.439315136162447</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.106637506312504</v>
@@ -51212,7 +50948,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.453193184204232</v>
+        <v>1.436198539619127</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.047597285041979</v>
@@ -51301,7 +51037,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.486653226970006</v>
+        <v>1.463446965802107</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.914615878330357</v>
@@ -51390,7 +51126,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.488150032236343</v>
+        <v>1.465539063783309</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.032425041531608</v>
@@ -51479,7 +51215,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.495605732031562</v>
+        <v>1.474207724436141</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.0496809545453</v>
@@ -51568,7 +51304,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.496894626358693</v>
+        <v>1.47357235025541</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.033441348560249</v>
@@ -51657,7 +51393,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.493271225657312</v>
+        <v>1.474186520940163</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.063249698568013</v>
@@ -51746,7 +51482,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.484238815539909</v>
+        <v>1.464770848886523</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.055638197293428</v>
@@ -51835,7 +51571,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.492549571690586</v>
+        <v>1.471185510677795</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.039845854781149</v>
@@ -51924,7 +51660,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.454703860711311</v>
+        <v>1.436721315629886</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.077766750199989</v>
@@ -52013,7 +51749,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.455689704993504</v>
+        <v>1.446205645620216</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.090254438147873</v>
@@ -52102,7 +51838,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.432205581903961</v>
+        <v>1.418414303293844</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.113158039210791</v>
@@ -52191,7 +51927,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.452207576446774</v>
+        <v>1.446847335615516</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.993972068960188</v>
@@ -52280,7 +52016,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.48226992841543</v>
+        <v>1.47867604895196</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.119156958197187</v>
@@ -52369,7 +52105,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.480304019528124</v>
+        <v>1.474910440653614</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.016621458121569</v>
@@ -52458,7 +52194,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.490699087853856</v>
+        <v>1.485595876868013</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.056650067481639</v>
@@ -52547,7 +52283,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.494409181094465</v>
+        <v>1.486252370414167</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.970326798254382</v>
@@ -52636,7 +52372,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.492744231088267</v>
+        <v>1.491362913017514</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.081117762449246</v>
@@ -52725,7 +52461,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.500546064946537</v>
+        <v>1.50012008216763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.017761983113002</v>
@@ -52814,7 +52550,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.497157959104729</v>
+        <v>1.501063632490201</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.128208415933458</v>
@@ -52903,7 +52639,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.501456898102558</v>
+        <v>1.508786260161754</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.097626867157961</v>
@@ -52992,7 +52728,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.501247141261435</v>
+        <v>1.510701187083242</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.031957910632512</v>
@@ -53081,7 +52817,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.504748425898358</v>
+        <v>1.515403708956856</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.044610251829379</v>
@@ -53170,7 +52906,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.478484915807543</v>
+        <v>1.488642147800643</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.094384259942472</v>
@@ -53259,7 +52995,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.511813865118891</v>
+        <v>1.522420751711361</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.03253967492049</v>
@@ -53348,7 +53084,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.515301540791842</v>
+        <v>1.525657937636815</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.0418733959171</v>
@@ -53437,7 +53173,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.579338545968843</v>
+        <v>1.583725001233039</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.256572638087863</v>
@@ -53526,7 +53262,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592754694660741</v>
+        <v>1.593295543163918</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.266218241345463</v>
@@ -53615,7 +53351,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583929386320208</v>
+        <v>1.581289274419794</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.23155358776817</v>
@@ -53704,7 +53440,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.608258739246422</v>
+        <v>1.602140972321342</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.163216954122669</v>
@@ -53793,7 +53529,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.601019685498899</v>
+        <v>1.600258649278347</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.253432402734475</v>
@@ -53882,7 +53618,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.602607705997692</v>
+        <v>1.608606338567702</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.231591807648584</v>
@@ -53971,7 +53707,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.612778381902083</v>
+        <v>1.617122516860304</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.372877297319291</v>
@@ -54060,7 +53796,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.600848107838018</v>
+        <v>1.610129300699674</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.28061724347882</v>
@@ -54149,7 +53885,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.598106589644446</v>
+        <v>1.607645200066283</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.261511008511901</v>
@@ -54238,7 +53974,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.593037311118669</v>
+        <v>1.600696491773938</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.22834317104348</v>
@@ -54327,7 +54063,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.579442325024681</v>
+        <v>1.585530134306046</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.20261205094017</v>
@@ -54416,7 +54152,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.563407860466919</v>
+        <v>1.57088433672062</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.334849833562178</v>
@@ -54505,7 +54241,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.603924089582933</v>
+        <v>1.605916897167398</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.1283235514022</v>
@@ -54594,7 +54330,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.542626650544854</v>
+        <v>1.552949624458453</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.049445967126815</v>
@@ -54683,7 +54419,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.52543702561056</v>
+        <v>1.538273572432316</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.093911761622443</v>
@@ -54772,7 +54508,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.516745091717022</v>
+        <v>1.527060794956701</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.134865147546705</v>
@@ -54861,7 +54597,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.504765697251911</v>
+        <v>1.513330030767693</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.133056369366119</v>
@@ -54950,7 +54686,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.497703997504495</v>
+        <v>1.512376592674496</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.071960459617746</v>
@@ -55039,7 +54775,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.50281828154106</v>
+        <v>1.516214936155089</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.02461059705397</v>
@@ -55128,7 +54864,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.514061266879368</v>
+        <v>1.527019571942732</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.112620823839693</v>
@@ -55217,7 +54953,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.522393188075672</v>
+        <v>1.534063892867364</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.142906980026511</v>
@@ -55306,7 +55042,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.521975780192432</v>
+        <v>1.532326838027665</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.088942574632663</v>
@@ -55395,7 +55131,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.525872883456798</v>
+        <v>1.537662351084572</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.098470329905415</v>
@@ -55484,7 +55220,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.522336672698089</v>
+        <v>1.534901122095373</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.097304434798203</v>
@@ -55573,7 +55309,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.499857974629055</v>
+        <v>1.513176405619469</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.125425567032176</v>
@@ -55662,7 +55398,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.512934185917177</v>
+        <v>1.525208436323628</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.096327206246138</v>
@@ -55751,7 +55487,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.525726723740862</v>
+        <v>1.540254658102845</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.164513070774727</v>
@@ -55840,7 +55576,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.533474208988891</v>
+        <v>1.548234470794492</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.180749558467055</v>
@@ -55929,7 +55665,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.59892517130652</v>
+        <v>1.608361231351233</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.60605333907568</v>
@@ -56018,7 +55754,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.614670844655809</v>
+        <v>1.622178805664273</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.643694634884059</v>
@@ -56107,7 +55843,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.627555250833315</v>
+        <v>1.637761398180271</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.482668729390978</v>
@@ -56196,7 +55932,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.637071572210828</v>
+        <v>1.650601036928818</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.729790960596147</v>
@@ -56285,7 +56021,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.648927771866731</v>
+        <v>1.651042281756116</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.706187605346678</v>
@@ -56374,7 +56110,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.585838993771618</v>
+        <v>1.595910132983189</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.250024993953925</v>
@@ -56463,7 +56199,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.582212122010414</v>
+        <v>1.586586135604251</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.259536973832824</v>
@@ -56552,7 +56288,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.578188801586485</v>
+        <v>1.581089677615277</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.272456077121631</v>
@@ -56641,7 +56377,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.577633875503726</v>
+        <v>1.57710837344121</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.271663843215904</v>
@@ -56730,7 +56466,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.568417975929639</v>
+        <v>1.573301148309938</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.273185791385618</v>
@@ -56819,7 +56555,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.571394153104328</v>
+        <v>1.574140090476998</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.278529465303796</v>
@@ -56908,7 +56644,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.590974981857483</v>
+        <v>1.589324668798605</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.291415597585646</v>
